--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999521106981792</v>
+        <v>1.000212012011146</v>
       </c>
       <c r="D3">
+        <v>0.999944156172735</v>
+      </c>
+      <c r="E3">
         <v>1.000212012011146</v>
-      </c>
-      <c r="E3">
-        <v>0.999944156172735</v>
       </c>
       <c r="F3">
         <v>0.9999521106981792</v>
       </c>
       <c r="G3">
+        <v>1.000118445265329</v>
+      </c>
+      <c r="H3">
         <v>0.9998495692336242</v>
       </c>
-      <c r="H3">
-        <v>1.000118445265329</v>
-      </c>
       <c r="I3">
+        <v>0.9999521106981792</v>
+      </c>
+      <c r="J3">
         <v>0.9999464737245315</v>
-      </c>
-      <c r="J3">
-        <v>1.000212012011146</v>
       </c>
       <c r="K3">
         <v>0.9999521106981792</v>
@@ -728,7 +680,7 @@
         <v>1.000003794517591</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999077542248577</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="D4">
+        <v>0.999892131184248</v>
+      </c>
+      <c r="E4">
         <v>1.000409161393356</v>
-      </c>
-      <c r="E4">
-        <v>0.999892131184248</v>
       </c>
       <c r="F4">
         <v>0.9999077542248577</v>
       </c>
       <c r="G4">
+        <v>1.000228650863356</v>
+      </c>
+      <c r="H4">
         <v>0.9997093715599369</v>
       </c>
-      <c r="H4">
-        <v>1.000228650863356</v>
-      </c>
       <c r="I4">
+        <v>0.9999077542248577</v>
+      </c>
+      <c r="J4">
         <v>0.9998966838201495</v>
-      </c>
-      <c r="J4">
-        <v>1.000409161393356</v>
       </c>
       <c r="K4">
         <v>0.9999077542248577</v>
@@ -790,7 +742,7 @@
         <v>1.000007292174317</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998216742360626</v>
+        <v>1.000785053342422</v>
       </c>
       <c r="D5">
+        <v>0.9997937714625234</v>
+      </c>
+      <c r="E5">
         <v>1.000785053342422</v>
-      </c>
-      <c r="E5">
-        <v>0.9997937714625234</v>
       </c>
       <c r="F5">
         <v>0.9998216742360626</v>
       </c>
       <c r="G5">
+        <v>1.000438235425027</v>
+      </c>
+      <c r="H5">
         <v>0.9994447397736008</v>
       </c>
-      <c r="H5">
-        <v>1.000438235425027</v>
-      </c>
       <c r="I5">
+        <v>0.9998216742360626</v>
+      </c>
+      <c r="J5">
         <v>0.999801907427656</v>
-      </c>
-      <c r="J5">
-        <v>1.000785053342422</v>
       </c>
       <c r="K5">
         <v>0.9998216742360626</v>
@@ -852,7 +804,7 @@
         <v>1.000014230277882</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997377199876122</v>
+        <v>1.001151874372384</v>
       </c>
       <c r="D6">
+        <v>0.9996977630593832</v>
+      </c>
+      <c r="E6">
         <v>1.001151874372384</v>
-      </c>
-      <c r="E6">
-        <v>0.9996977630593832</v>
       </c>
       <c r="F6">
         <v>0.9997377199876122</v>
       </c>
       <c r="G6">
+        <v>1.00064278384057</v>
+      </c>
+      <c r="H6">
         <v>0.9991864146482434</v>
       </c>
-      <c r="H6">
-        <v>1.00064278384057</v>
-      </c>
       <c r="I6">
+        <v>0.9997377199876122</v>
+      </c>
+      <c r="J6">
         <v>0.99970940717555</v>
-      </c>
-      <c r="J6">
-        <v>1.001151874372384</v>
       </c>
       <c r="K6">
         <v>0.9997377199876122</v>
@@ -914,7 +866,7 @@
         <v>1.000020993847291</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999997667704457</v>
+        <v>1.000008043052059</v>
       </c>
       <c r="D7">
+        <v>0.9999981678615585</v>
+      </c>
+      <c r="E7">
         <v>1.000008043052059</v>
-      </c>
-      <c r="E7">
-        <v>0.9999981678615585</v>
       </c>
       <c r="F7">
         <v>0.999997667704457</v>
       </c>
       <c r="G7">
+        <v>1.000004305300237</v>
+      </c>
+      <c r="H7">
         <v>0.9999952114597747</v>
       </c>
-      <c r="H7">
-        <v>1.000004305300237</v>
-      </c>
       <c r="I7">
+        <v>0.999997667704457</v>
+      </c>
+      <c r="J7">
         <v>0.9999980203685245</v>
-      </c>
-      <c r="J7">
-        <v>1.000008043052059</v>
       </c>
       <c r="K7">
         <v>0.999997667704457</v>
@@ -976,7 +928,7 @@
         <v>1.000000235957768</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000406115696</v>
+        <v>0.9999961489381901</v>
       </c>
       <c r="D8">
+        <v>1.000001271984295</v>
+      </c>
+      <c r="E8">
         <v>0.9999961489381901</v>
-      </c>
-      <c r="E8">
-        <v>1.000001271984294</v>
       </c>
       <c r="F8">
         <v>1.000000406115696</v>
       </c>
       <c r="G8">
+        <v>0.9999976786558548</v>
+      </c>
+      <c r="H8">
         <v>1.000003559009432</v>
       </c>
-      <c r="H8">
-        <v>0.9999976786558548</v>
-      </c>
       <c r="I8">
-        <v>1.000001017910257</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="J8">
-        <v>0.9999961489381901</v>
+        <v>1.000001017910256</v>
       </c>
       <c r="K8">
         <v>1.000000406115696</v>
       </c>
       <c r="L8">
-        <v>1.000001271984294</v>
+        <v>1.000001271984295</v>
       </c>
       <c r="M8">
-        <v>0.9999987104612422</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="N8">
-        <v>0.9999987104612422</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="O8">
-        <v>0.9999983665261131</v>
+        <v>0.9999983665261132</v>
       </c>
       <c r="P8">
         <v>0.9999992756793935</v>
@@ -1038,7 +990,7 @@
         <v>1.000000013768954</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000003321359308</v>
+        <v>0.9999858999788127</v>
       </c>
       <c r="D9">
+        <v>1.000003637702651</v>
+      </c>
+      <c r="E9">
         <v>0.9999858999788127</v>
-      </c>
-      <c r="E9">
-        <v>1.000003637702651</v>
       </c>
       <c r="F9">
         <v>1.000003321359308</v>
       </c>
       <c r="G9">
+        <v>0.9999921689107177</v>
+      </c>
+      <c r="H9">
         <v>1.000009764177831</v>
       </c>
-      <c r="H9">
-        <v>0.9999921689107177</v>
-      </c>
       <c r="I9">
+        <v>1.000003321359308</v>
+      </c>
+      <c r="J9">
         <v>1.00000354431406</v>
-      </c>
-      <c r="J9">
-        <v>0.9999858999788127</v>
       </c>
       <c r="K9">
         <v>1.000003321359308</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999997227405636</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000004015057136</v>
+        <v>0.999979313964276</v>
       </c>
       <c r="D10">
+        <v>1.000005814764151</v>
+      </c>
+      <c r="E10">
         <v>0.999979313964276</v>
-      </c>
-      <c r="E10">
-        <v>1.000005814764151</v>
       </c>
       <c r="F10">
         <v>1.000004015057136</v>
       </c>
       <c r="G10">
+        <v>0.9999882037822824</v>
+      </c>
+      <c r="H10">
         <v>1.000015850594845</v>
       </c>
-      <c r="H10">
-        <v>0.9999882037822824</v>
-      </c>
       <c r="I10">
+        <v>1.000004015057136</v>
+      </c>
+      <c r="J10">
         <v>1.000005287516803</v>
-      </c>
-      <c r="J10">
-        <v>0.999979313964276</v>
       </c>
       <c r="K10">
         <v>1.000004015057136</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999997476132489</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000016857197494</v>
+        <v>0.9999316303848451</v>
       </c>
       <c r="D11">
+        <v>1.000017220649825</v>
+      </c>
+      <c r="E11">
         <v>0.9999316303848451</v>
-      </c>
-      <c r="E11">
-        <v>1.000017220649825</v>
       </c>
       <c r="F11">
         <v>1.000016857197494</v>
       </c>
       <c r="G11">
+        <v>0.9999623100279628</v>
+      </c>
+      <c r="H11">
         <v>1.000045995274921</v>
       </c>
-      <c r="H11">
-        <v>0.9999623100279628</v>
-      </c>
       <c r="I11">
+        <v>1.000016857197494</v>
+      </c>
+      <c r="J11">
         <v>1.000017111610485</v>
-      </c>
-      <c r="J11">
-        <v>0.9999316303848451</v>
       </c>
       <c r="K11">
         <v>1.000016857197494</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999985208575888</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.99910002820731</v>
+        <v>1.004200403778915</v>
       </c>
       <c r="D12">
+        <v>0.9988664982305994</v>
+      </c>
+      <c r="E12">
         <v>1.004200403778915</v>
-      </c>
-      <c r="E12">
-        <v>0.9988664982305993</v>
       </c>
       <c r="F12">
         <v>0.99910002820731</v>
       </c>
       <c r="G12">
+        <v>1.002364265628935</v>
+      </c>
+      <c r="H12">
         <v>0.9969328314123224</v>
       </c>
-      <c r="H12">
-        <v>1.002364265628935</v>
-      </c>
       <c r="I12">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="J12">
         <v>0.9989345848400207</v>
-      </c>
-      <c r="J12">
-        <v>1.004200403778915</v>
       </c>
       <c r="K12">
         <v>0.99910002820731</v>
       </c>
       <c r="L12">
-        <v>0.9988664982305993</v>
+        <v>0.9988664982305994</v>
       </c>
       <c r="M12">
         <v>1.001533451004757</v>
@@ -1274,19 +1226,19 @@
         <v>1.000722310072275</v>
       </c>
       <c r="Q12">
-        <v>1.000722310072274</v>
+        <v>1.000722310072275</v>
       </c>
       <c r="R12">
-        <v>1.000316739606033</v>
+        <v>1.000316739606034</v>
       </c>
       <c r="S12">
-        <v>1.000316739606033</v>
+        <v>1.000316739606034</v>
       </c>
       <c r="T12">
         <v>1.000066435349684</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996431778386737</v>
+        <v>1.00117286755805</v>
       </c>
       <c r="D13">
+        <v>0.9997421207400775</v>
+      </c>
+      <c r="E13">
         <v>1.00117286755805</v>
-      </c>
-      <c r="E13">
-        <v>0.9997421207400776</v>
       </c>
       <c r="F13">
         <v>0.9996431778386737</v>
       </c>
       <c r="G13">
+        <v>1.00062217499964</v>
+      </c>
+      <c r="H13">
         <v>0.9993311734613575</v>
       </c>
-      <c r="H13">
-        <v>1.00062217499964</v>
-      </c>
       <c r="I13">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="J13">
         <v>0.9997132734756337</v>
-      </c>
-      <c r="J13">
-        <v>1.00117286755805</v>
       </c>
       <c r="K13">
         <v>0.9996431778386737</v>
       </c>
       <c r="L13">
-        <v>0.9997421207400776</v>
+        <v>0.9997421207400775</v>
       </c>
       <c r="M13">
         <v>1.000457494149064</v>
@@ -1348,7 +1300,7 @@
         <v>1.000037464678905</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9971536907267378</v>
+        <v>1.010876129236714</v>
       </c>
       <c r="D14">
-        <v>1.010876129236713</v>
+        <v>0.9973516768175865</v>
       </c>
       <c r="E14">
-        <v>0.9973516768175865</v>
+        <v>1.010876129236714</v>
       </c>
       <c r="F14">
         <v>0.9971536907267378</v>
       </c>
       <c r="G14">
+        <v>1.005936055402987</v>
+      </c>
+      <c r="H14">
         <v>0.9929755077829272</v>
       </c>
-      <c r="H14">
-        <v>1.005936055402987</v>
-      </c>
       <c r="I14">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="J14">
         <v>0.997293954603883</v>
-      </c>
-      <c r="J14">
-        <v>1.010876129236713</v>
       </c>
       <c r="K14">
         <v>0.9971536907267378</v>
@@ -1410,7 +1362,7 @@
         <v>1.000264502428472</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9993250225405822</v>
+        <v>1.002904283654747</v>
       </c>
       <c r="D15">
+        <v>0.9992455399269431</v>
+      </c>
+      <c r="E15">
         <v>1.002904283654747</v>
-      </c>
-      <c r="E15">
-        <v>0.9992455399269431</v>
       </c>
       <c r="F15">
         <v>0.9993250225405822</v>
       </c>
       <c r="G15">
+        <v>1.001615752455668</v>
+      </c>
+      <c r="H15">
         <v>0.997972974214935</v>
       </c>
-      <c r="H15">
-        <v>1.001615752455668</v>
-      </c>
       <c r="I15">
-        <v>0.9992687179876568</v>
+        <v>0.9993250225405822</v>
       </c>
       <c r="J15">
-        <v>1.002904283654747</v>
+        <v>0.9992687179876569</v>
       </c>
       <c r="K15">
         <v>0.9993250225405822</v>
@@ -1472,7 +1424,7 @@
         <v>1.000055381796755</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999978469078267</v>
+        <v>1.004139938171331</v>
       </c>
       <c r="D16">
-        <v>1.000002080130893</v>
+        <v>0.9989169129985072</v>
       </c>
       <c r="E16">
-        <v>1.000000387191945</v>
+        <v>1.004139938171331</v>
       </c>
       <c r="F16">
-        <v>0.9999978469078267</v>
+        <v>0.9990515989821677</v>
       </c>
       <c r="G16">
-        <v>1.000001518189854</v>
+        <v>1.002308132441933</v>
       </c>
       <c r="H16">
-        <v>1.000000553762923</v>
+        <v>0.99708611152136</v>
       </c>
       <c r="I16">
-        <v>0.9999996448166887</v>
+        <v>0.9990515989821677</v>
       </c>
       <c r="J16">
-        <v>1.000002080130893</v>
+        <v>0.9989561831310648</v>
       </c>
       <c r="K16">
-        <v>0.9999978469078267</v>
+        <v>0.9990515989821677</v>
       </c>
       <c r="L16">
-        <v>1.000000387191945</v>
+        <v>0.9989169129985072</v>
       </c>
       <c r="M16">
-        <v>1.000001233661419</v>
+        <v>1.001528425584919</v>
       </c>
       <c r="N16">
-        <v>1.000001233661419</v>
+        <v>1.001528425584919</v>
       </c>
       <c r="O16">
-        <v>1.000001007028587</v>
+        <v>1.001788327870591</v>
       </c>
       <c r="P16">
-        <v>1.000000104743554</v>
+        <v>1.000702816717335</v>
       </c>
       <c r="Q16">
-        <v>1.000000104743554</v>
+        <v>1.000702816717335</v>
       </c>
       <c r="R16">
-        <v>0.9999995402846226</v>
+        <v>1.000290012283543</v>
       </c>
       <c r="S16">
-        <v>0.9999995402846226</v>
+        <v>1.000290012283543</v>
       </c>
       <c r="T16">
-        <v>1.000000338500022</v>
+        <v>1.000076479541061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999972696301132</v>
+        <v>1.003391178025306</v>
       </c>
       <c r="D17">
-        <v>1.000017645014676</v>
+        <v>0.9991275232178822</v>
       </c>
       <c r="E17">
-        <v>0.9999946548356774</v>
+        <v>1.003391178025306</v>
       </c>
       <c r="F17">
-        <v>0.9999972696301132</v>
+        <v>0.9991966326916326</v>
       </c>
       <c r="G17">
-        <v>0.9999852499857477</v>
+        <v>1.001881138646519</v>
       </c>
       <c r="H17">
-        <v>1.000010307512805</v>
+        <v>0.9976602307125939</v>
       </c>
       <c r="I17">
-        <v>0.9999954158568256</v>
+        <v>0.9991966326916326</v>
       </c>
       <c r="J17">
-        <v>1.000017645014676</v>
+        <v>0.9991476734144294</v>
       </c>
       <c r="K17">
-        <v>0.9999972696301132</v>
+        <v>0.9991966326916326</v>
       </c>
       <c r="L17">
-        <v>0.9999946548356774</v>
+        <v>0.9991275232178822</v>
       </c>
       <c r="M17">
-        <v>1.000006149925177</v>
+        <v>1.001259350621594</v>
       </c>
       <c r="N17">
-        <v>1.000006149925177</v>
+        <v>1.001259350621594</v>
       </c>
       <c r="O17">
-        <v>1.000007535787719</v>
+        <v>1.001466613296569</v>
       </c>
       <c r="P17">
-        <v>1.000003189826822</v>
+        <v>1.000571777978274</v>
       </c>
       <c r="Q17">
-        <v>1.000003189826822</v>
+        <v>1.000571777978274</v>
       </c>
       <c r="R17">
-        <v>1.000001709777645</v>
+        <v>1.000227991656613</v>
       </c>
       <c r="S17">
-        <v>1.000001709777645</v>
+        <v>1.000227991656613</v>
       </c>
       <c r="T17">
-        <v>1.000000090472641</v>
+        <v>1.000067396118061</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999804747000395</v>
+        <v>1.00185466860902</v>
       </c>
       <c r="D18">
-        <v>1.000068218552957</v>
+        <v>0.9995577866081444</v>
       </c>
       <c r="E18">
-        <v>0.9999843178703398</v>
+        <v>1.00185466860902</v>
       </c>
       <c r="F18">
-        <v>0.9999804747000395</v>
+        <v>0.9994977160401893</v>
       </c>
       <c r="G18">
-        <v>0.9999589141850288</v>
+        <v>1.001006163164704</v>
       </c>
       <c r="H18">
-        <v>1.000036631183552</v>
+        <v>0.9988322071357619</v>
       </c>
       <c r="I18">
-        <v>0.9999831963848484</v>
+        <v>0.9994977160401893</v>
       </c>
       <c r="J18">
-        <v>1.000068218552957</v>
+        <v>0.9995402710178848</v>
       </c>
       <c r="K18">
-        <v>0.9999804747000395</v>
+        <v>0.9994977160401893</v>
       </c>
       <c r="L18">
-        <v>0.9999843178703398</v>
+        <v>0.9995577866081444</v>
       </c>
       <c r="M18">
-        <v>1.000026268211648</v>
+        <v>1.000706227608582</v>
       </c>
       <c r="N18">
-        <v>1.000026268211648</v>
+        <v>1.000706227608582</v>
       </c>
       <c r="O18">
-        <v>1.000029722535616</v>
+        <v>1.000806206127289</v>
       </c>
       <c r="P18">
-        <v>1.000011003707779</v>
+        <v>1.000303390419118</v>
       </c>
       <c r="Q18">
-        <v>1.000011003707779</v>
+        <v>1.000303390419118</v>
       </c>
       <c r="R18">
-        <v>1.000003371455844</v>
+        <v>1.000101971824386</v>
       </c>
       <c r="S18">
-        <v>1.000003371455844</v>
+        <v>1.000101971824386</v>
       </c>
       <c r="T18">
-        <v>1.000001958812794</v>
+        <v>1.000048135429284</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001945996177078</v>
+      </c>
+      <c r="D19">
+        <v>0.9995451945272771</v>
+      </c>
+      <c r="E19">
+        <v>1.001945996177078</v>
+      </c>
+      <c r="F19">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="G19">
+        <v>1.001049762719113</v>
+      </c>
+      <c r="H19">
+        <v>0.9988040839028025</v>
+      </c>
+      <c r="I19">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="J19">
+        <v>0.9995193245881533</v>
+      </c>
+      <c r="K19">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="L19">
+        <v>0.9995451945272771</v>
+      </c>
+      <c r="M19">
+        <v>1.000745595352178</v>
+      </c>
+      <c r="N19">
+        <v>1.000745595352178</v>
+      </c>
+      <c r="O19">
+        <v>1.000846984474489</v>
+      </c>
+      <c r="P19">
+        <v>1.000315882446084</v>
+      </c>
+      <c r="Q19">
+        <v>1.000315882446084</v>
+      </c>
+      <c r="R19">
+        <v>1.000101025993038</v>
+      </c>
+      <c r="S19">
+        <v>1.000101025993038</v>
+      </c>
+      <c r="T19">
+        <v>1.000053469758054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000002080130893</v>
+      </c>
+      <c r="D20">
+        <v>1.000000387191945</v>
+      </c>
+      <c r="E20">
+        <v>1.000002080130893</v>
+      </c>
+      <c r="F20">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="G20">
+        <v>1.000000553762923</v>
+      </c>
+      <c r="H20">
+        <v>1.000001518189854</v>
+      </c>
+      <c r="I20">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="J20">
+        <v>0.9999996448166895</v>
+      </c>
+      <c r="K20">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="L20">
+        <v>1.000000387191945</v>
+      </c>
+      <c r="M20">
+        <v>1.000001233661419</v>
+      </c>
+      <c r="N20">
+        <v>1.000001233661419</v>
+      </c>
+      <c r="O20">
+        <v>1.000001007028587</v>
+      </c>
+      <c r="P20">
+        <v>1.000000104743554</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000104743554</v>
+      </c>
+      <c r="R20">
+        <v>0.9999995402846227</v>
+      </c>
+      <c r="S20">
+        <v>0.9999995402846227</v>
+      </c>
+      <c r="T20">
+        <v>1.000000338500022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000017645014676</v>
+      </c>
+      <c r="D21">
+        <v>0.9999946548356774</v>
+      </c>
+      <c r="E21">
+        <v>1.000017645014676</v>
+      </c>
+      <c r="F21">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="G21">
+        <v>1.000010307512805</v>
+      </c>
+      <c r="H21">
+        <v>0.9999852499857477</v>
+      </c>
+      <c r="I21">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="J21">
+        <v>0.9999954158568256</v>
+      </c>
+      <c r="K21">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="L21">
+        <v>0.9999946548356774</v>
+      </c>
+      <c r="M21">
+        <v>1.000006149925177</v>
+      </c>
+      <c r="N21">
+        <v>1.000006149925177</v>
+      </c>
+      <c r="O21">
+        <v>1.000007535787719</v>
+      </c>
+      <c r="P21">
+        <v>1.000003189826822</v>
+      </c>
+      <c r="Q21">
+        <v>1.000003189826822</v>
+      </c>
+      <c r="R21">
+        <v>1.000001709777645</v>
+      </c>
+      <c r="S21">
+        <v>1.000001709777645</v>
+      </c>
+      <c r="T21">
+        <v>1.000000090472641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000068218552957</v>
+      </c>
+      <c r="D22">
+        <v>0.9999843178703398</v>
+      </c>
+      <c r="E22">
+        <v>1.000068218552957</v>
+      </c>
+      <c r="F22">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="G22">
+        <v>1.000036631183552</v>
+      </c>
+      <c r="H22">
+        <v>0.9999589141850288</v>
+      </c>
+      <c r="I22">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="J22">
+        <v>0.9999831963848483</v>
+      </c>
+      <c r="K22">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="L22">
+        <v>0.9999843178703398</v>
+      </c>
+      <c r="M22">
+        <v>1.000026268211648</v>
+      </c>
+      <c r="N22">
+        <v>1.000026268211648</v>
+      </c>
+      <c r="O22">
+        <v>1.000029722535616</v>
+      </c>
+      <c r="P22">
+        <v>1.000011003707779</v>
+      </c>
+      <c r="Q22">
+        <v>1.000011003707779</v>
+      </c>
+      <c r="R22">
+        <v>1.000003371455844</v>
+      </c>
+      <c r="S22">
+        <v>1.000003371455844</v>
+      </c>
+      <c r="T22">
+        <v>1.000001958812794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.00016299717952</v>
+      </c>
+      <c r="D23">
+        <v>0.9999648962881014</v>
+      </c>
+      <c r="E23">
+        <v>1.00016299717952</v>
+      </c>
+      <c r="F23">
         <v>0.999949087718171</v>
       </c>
-      <c r="D19">
-        <v>1.00016299717952</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000085986209545</v>
+      </c>
+      <c r="H23">
+        <v>0.9999094044851334</v>
+      </c>
+      <c r="I23">
+        <v>0.999949087718171</v>
+      </c>
+      <c r="J23">
+        <v>0.9999602875034046</v>
+      </c>
+      <c r="K23">
+        <v>0.999949087718171</v>
+      </c>
+      <c r="L23">
         <v>0.9999648962881014</v>
       </c>
-      <c r="F19">
-        <v>0.999949087718171</v>
-      </c>
-      <c r="G19">
-        <v>0.9999094044851334</v>
-      </c>
-      <c r="H19">
-        <v>1.000085986209545</v>
-      </c>
-      <c r="I19">
-        <v>0.9999602875034046</v>
-      </c>
-      <c r="J19">
-        <v>1.00016299717952</v>
-      </c>
-      <c r="K19">
-        <v>0.999949087718171</v>
-      </c>
-      <c r="L19">
-        <v>0.9999648962881014</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000063946733811</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000063946733811</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000071293225722</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000025660395264</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000025660395264</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000006517225991</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000006517225991</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000005443230646</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000212012011146</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="D3">
-        <v>0.999944156172735</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="E3">
-        <v>1.000212012011146</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="F3">
-        <v>0.9999521106981792</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="G3">
-        <v>1.000118445265329</v>
+        <v>1.000989709121037</v>
       </c>
       <c r="H3">
-        <v>0.9998495692336242</v>
+        <v>0.9988593475288198</v>
       </c>
       <c r="I3">
-        <v>0.9999521106981792</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="J3">
-        <v>0.9999464737245315</v>
+        <v>0.9995474204394819</v>
       </c>
       <c r="K3">
-        <v>0.9999521106981792</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="L3">
-        <v>0.999944156172735</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="M3">
-        <v>1.00007808409194</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="N3">
-        <v>1.00007808409194</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="O3">
-        <v>1.000091537816403</v>
+        <v>1.000795113537464</v>
       </c>
       <c r="P3">
-        <v>1.000036092960687</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="Q3">
-        <v>1.000036092960687</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="R3">
-        <v>1.00001509739506</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="S3">
-        <v>1.00001509739506</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="T3">
-        <v>1.000003794517591</v>
+        <v>1.000048510050433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000409161393356</v>
+        <v>1.001862448960113</v>
       </c>
       <c r="D4">
-        <v>0.999892131184248</v>
+        <v>0.999557794662699</v>
       </c>
       <c r="E4">
-        <v>1.000409161393356</v>
+        <v>1.001862448960113</v>
       </c>
       <c r="F4">
-        <v>0.9999077542248577</v>
+        <v>0.9994922541353004</v>
       </c>
       <c r="G4">
-        <v>1.000228650863356</v>
+        <v>1.001009176766682</v>
       </c>
       <c r="H4">
-        <v>0.9997093715599369</v>
+        <v>0.9988332712057384</v>
       </c>
       <c r="I4">
-        <v>0.9999077542248577</v>
+        <v>0.9994922541353004</v>
       </c>
       <c r="J4">
-        <v>0.9998966838201495</v>
+        <v>0.9995386855339142</v>
       </c>
       <c r="K4">
-        <v>0.9999077542248577</v>
+        <v>0.9994922541353004</v>
       </c>
       <c r="L4">
-        <v>0.999892131184248</v>
+        <v>0.999557794662699</v>
       </c>
       <c r="M4">
-        <v>1.000150646288802</v>
+        <v>1.000710121811406</v>
       </c>
       <c r="N4">
-        <v>1.000150646288802</v>
+        <v>1.000710121811406</v>
       </c>
       <c r="O4">
-        <v>1.000176647813653</v>
+        <v>1.000809806796498</v>
       </c>
       <c r="P4">
-        <v>1.000069682267487</v>
+        <v>1.000304165919371</v>
       </c>
       <c r="Q4">
-        <v>1.000069682267487</v>
+        <v>1.000304165919371</v>
       </c>
       <c r="R4">
-        <v>1.00002920025683</v>
+        <v>1.000101187973353</v>
       </c>
       <c r="S4">
-        <v>1.00002920025683</v>
+        <v>1.000101187973353</v>
       </c>
       <c r="T4">
-        <v>1.000007292174317</v>
+        <v>1.000048938544074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000785053342422</v>
+        <v>1.001759421105122</v>
       </c>
       <c r="D5">
-        <v>0.9997937714625234</v>
+        <v>0.9995865084097032</v>
       </c>
       <c r="E5">
-        <v>1.000785053342422</v>
+        <v>1.001759421105122</v>
       </c>
       <c r="F5">
-        <v>0.9998216742360626</v>
+        <v>0.9995126878975737</v>
       </c>
       <c r="G5">
-        <v>1.000438235425027</v>
+        <v>1.000950594339622</v>
       </c>
       <c r="H5">
-        <v>0.9994447397736008</v>
+        <v>0.9989114159029664</v>
       </c>
       <c r="I5">
-        <v>0.9998216742360626</v>
+        <v>0.9995126878975737</v>
       </c>
       <c r="J5">
-        <v>0.999801907427656</v>
+        <v>0.9995649838005395</v>
       </c>
       <c r="K5">
-        <v>0.9998216742360626</v>
+        <v>0.9995126878975737</v>
       </c>
       <c r="L5">
-        <v>0.9997937714625234</v>
+        <v>0.9995865084097032</v>
       </c>
       <c r="M5">
-        <v>1.000289412402473</v>
+        <v>1.000672964757413</v>
       </c>
       <c r="N5">
-        <v>1.000289412402473</v>
+        <v>1.000672964757413</v>
       </c>
       <c r="O5">
-        <v>1.000339020076658</v>
+        <v>1.000765507951483</v>
       </c>
       <c r="P5">
-        <v>1.000133499680336</v>
+        <v>1.000286205804133</v>
       </c>
       <c r="Q5">
-        <v>1.000133499680336</v>
+        <v>1.000286205804133</v>
       </c>
       <c r="R5">
-        <v>1.000055543319268</v>
+        <v>1.000092826327493</v>
       </c>
       <c r="S5">
-        <v>1.000055543319268</v>
+        <v>1.000092826327493</v>
       </c>
       <c r="T5">
-        <v>1.000014230277882</v>
+        <v>1.000047601909254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001151874372384</v>
+        <v>1.001690480340909</v>
       </c>
       <c r="D6">
-        <v>0.9996977630593832</v>
+        <v>0.9996055201704547</v>
       </c>
       <c r="E6">
-        <v>1.001151874372384</v>
+        <v>1.001690480340909</v>
       </c>
       <c r="F6">
-        <v>0.9997377199876122</v>
+        <v>0.999526724715909</v>
       </c>
       <c r="G6">
-        <v>1.00064278384057</v>
+        <v>1.000911525909091</v>
       </c>
       <c r="H6">
-        <v>0.9991864146482434</v>
+        <v>0.9989630685227268</v>
       </c>
       <c r="I6">
-        <v>0.9997377199876122</v>
+        <v>0.999526724715909</v>
       </c>
       <c r="J6">
-        <v>0.99970940717555</v>
+        <v>0.9995825492613641</v>
       </c>
       <c r="K6">
-        <v>0.9997377199876122</v>
+        <v>0.999526724715909</v>
       </c>
       <c r="L6">
-        <v>0.9996977630593832</v>
+        <v>0.9996055201704547</v>
       </c>
       <c r="M6">
-        <v>1.000424818715884</v>
+        <v>1.000648000255682</v>
       </c>
       <c r="N6">
-        <v>1.000424818715884</v>
+        <v>1.000648000255682</v>
       </c>
       <c r="O6">
-        <v>1.000497473757446</v>
+        <v>1.000735842140152</v>
       </c>
       <c r="P6">
-        <v>1.00019578580646</v>
+        <v>1.000274241742424</v>
       </c>
       <c r="Q6">
-        <v>1.00019578580646</v>
+        <v>1.000274241742424</v>
       </c>
       <c r="R6">
-        <v>1.000081269351748</v>
+        <v>1.000087362485795</v>
       </c>
       <c r="S6">
-        <v>1.000081269351748</v>
+        <v>1.000087362485795</v>
       </c>
       <c r="T6">
-        <v>1.000020993847291</v>
+        <v>1.000046644820076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000008043052059</v>
+        <v>0.9651494063969234</v>
       </c>
       <c r="D7">
-        <v>0.9999981678615585</v>
+        <v>1.008652206670176</v>
       </c>
       <c r="E7">
-        <v>1.000008043052059</v>
+        <v>0.9651494063969234</v>
       </c>
       <c r="F7">
-        <v>0.999997667704457</v>
+        <v>1.008821451347367</v>
       </c>
       <c r="G7">
-        <v>1.000004305300237</v>
+        <v>0.9808713479192401</v>
       </c>
       <c r="H7">
-        <v>0.9999952114597747</v>
+        <v>1.023040309642498</v>
       </c>
       <c r="I7">
-        <v>0.999997667704457</v>
+        <v>1.008821451347367</v>
       </c>
       <c r="J7">
-        <v>0.9999980203685245</v>
+        <v>1.00870154195752</v>
       </c>
       <c r="K7">
-        <v>0.999997667704457</v>
+        <v>1.008821451347367</v>
       </c>
       <c r="L7">
-        <v>0.9999981678615585</v>
+        <v>1.008652206670176</v>
       </c>
       <c r="M7">
-        <v>1.000003105456809</v>
+        <v>0.9869008065335496</v>
       </c>
       <c r="N7">
-        <v>1.000003105456809</v>
+        <v>0.9869008065335496</v>
       </c>
       <c r="O7">
-        <v>1.000003505404618</v>
+        <v>0.9848909869954464</v>
       </c>
       <c r="P7">
-        <v>1.000001292872691</v>
+        <v>0.9942076881381553</v>
       </c>
       <c r="Q7">
-        <v>1.000001292872691</v>
+        <v>0.9942076881381552</v>
       </c>
       <c r="R7">
-        <v>1.000000386580633</v>
+        <v>0.997861128940458</v>
       </c>
       <c r="S7">
-        <v>1.000000386580633</v>
+        <v>0.997861128940458</v>
       </c>
       <c r="T7">
-        <v>1.000000235957768</v>
+        <v>0.9992060439889539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999961489381901</v>
+        <v>0.9652919816680667</v>
       </c>
       <c r="D8">
-        <v>1.000001271984295</v>
+        <v>1.008616944015137</v>
       </c>
       <c r="E8">
-        <v>0.9999961489381901</v>
+        <v>0.9652919816680667</v>
       </c>
       <c r="F8">
-        <v>1.000000406115696</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="G8">
-        <v>0.9999976786558548</v>
+        <v>0.9809495172078365</v>
       </c>
       <c r="H8">
-        <v>1.000003559009432</v>
+        <v>1.022946479248526</v>
       </c>
       <c r="I8">
-        <v>1.000000406115696</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="J8">
-        <v>1.000001017910256</v>
+        <v>1.008665968145049</v>
       </c>
       <c r="K8">
-        <v>1.000000406115696</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="L8">
-        <v>1.000001271984295</v>
+        <v>1.008616944015137</v>
       </c>
       <c r="M8">
-        <v>0.9999987104612423</v>
+        <v>0.986954462841602</v>
       </c>
       <c r="N8">
-        <v>0.9999987104612423</v>
+        <v>0.986954462841602</v>
       </c>
       <c r="O8">
-        <v>0.9999983665261132</v>
+        <v>0.9849528142970135</v>
       </c>
       <c r="P8">
-        <v>0.9999992756793935</v>
+        <v>0.9942313490196938</v>
       </c>
       <c r="Q8">
-        <v>0.9999992756793935</v>
+        <v>0.9942313490196938</v>
       </c>
       <c r="R8">
-        <v>0.9999995582884691</v>
+        <v>0.9978697921087398</v>
       </c>
       <c r="S8">
-        <v>0.9999995582884691</v>
+        <v>0.9978697921087398</v>
       </c>
       <c r="T8">
-        <v>1.000000013768954</v>
+        <v>0.9992093352767489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999858999788127</v>
+        <v>0.9654385095321478</v>
       </c>
       <c r="D9">
-        <v>1.000003637702651</v>
+        <v>1.008581422978923</v>
       </c>
       <c r="E9">
-        <v>0.9999858999788127</v>
+        <v>0.9654385095321478</v>
       </c>
       <c r="F9">
-        <v>1.000003321359308</v>
+        <v>1.008746489585968</v>
       </c>
       <c r="G9">
-        <v>0.9999921689107177</v>
+        <v>0.9810293874609328</v>
       </c>
       <c r="H9">
-        <v>1.000009764177831</v>
+        <v>1.022852349088674</v>
       </c>
       <c r="I9">
-        <v>1.000003321359308</v>
+        <v>1.008746489585968</v>
       </c>
       <c r="J9">
-        <v>1.00000354431406</v>
+        <v>1.008629540241099</v>
       </c>
       <c r="K9">
-        <v>1.000003321359308</v>
+        <v>1.008746489585968</v>
       </c>
       <c r="L9">
-        <v>1.000003637702651</v>
+        <v>1.008581422978923</v>
       </c>
       <c r="M9">
-        <v>0.9999947688407318</v>
+        <v>0.9870099662555355</v>
       </c>
       <c r="N9">
-        <v>0.9999947688407318</v>
+        <v>0.9870099662555355</v>
       </c>
       <c r="O9">
-        <v>0.9999939021973937</v>
+        <v>0.9850164399906679</v>
       </c>
       <c r="P9">
-        <v>0.9999976196802574</v>
+        <v>0.9942554740323465</v>
       </c>
       <c r="Q9">
-        <v>0.9999976196802574</v>
+        <v>0.9942554740323465</v>
       </c>
       <c r="R9">
-        <v>0.9999990451000201</v>
+        <v>0.9978782279207519</v>
       </c>
       <c r="S9">
-        <v>0.9999990451000201</v>
+        <v>0.9978782279207519</v>
       </c>
       <c r="T9">
-        <v>0.9999997227405636</v>
+        <v>0.9992129498146239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.999979313964276</v>
+        <v>0.9655616455550116</v>
       </c>
       <c r="D10">
-        <v>1.000005814764151</v>
+        <v>1.008549237310037</v>
       </c>
       <c r="E10">
-        <v>0.999979313964276</v>
+        <v>0.9655616455550116</v>
       </c>
       <c r="F10">
-        <v>1.000004015057136</v>
+        <v>1.008718228410231</v>
       </c>
       <c r="G10">
-        <v>0.9999882037822824</v>
+        <v>0.9810980201958248</v>
       </c>
       <c r="H10">
-        <v>1.000015850594845</v>
+        <v>1.022765773215259</v>
       </c>
       <c r="I10">
-        <v>1.000004015057136</v>
+        <v>1.008718228410231</v>
       </c>
       <c r="J10">
-        <v>1.000005287516803</v>
+        <v>1.008598498616313</v>
       </c>
       <c r="K10">
-        <v>1.000004015057136</v>
+        <v>1.008718228410231</v>
       </c>
       <c r="L10">
-        <v>1.000005814764151</v>
+        <v>1.008549237310037</v>
       </c>
       <c r="M10">
-        <v>0.9999925643642136</v>
+        <v>0.9870554414325244</v>
       </c>
       <c r="N10">
-        <v>0.9999925643642136</v>
+        <v>0.9870554414325244</v>
       </c>
       <c r="O10">
-        <v>0.9999911108369032</v>
+        <v>0.9850696343536246</v>
       </c>
       <c r="P10">
-        <v>0.9999963812618543</v>
+        <v>0.9942763704250933</v>
       </c>
       <c r="Q10">
-        <v>0.9999963812618543</v>
+        <v>0.9942763704250933</v>
       </c>
       <c r="R10">
-        <v>0.9999982897106746</v>
+        <v>0.9978868349213776</v>
       </c>
       <c r="S10">
-        <v>0.9999982897106746</v>
+        <v>0.9978868349213776</v>
       </c>
       <c r="T10">
-        <v>0.9999997476132489</v>
+        <v>0.9992152338837794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999316303848451</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="D11">
-        <v>1.000017220649825</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="E11">
-        <v>0.9999316303848451</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="F11">
-        <v>1.000016857197494</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="G11">
-        <v>0.9999623100279628</v>
+        <v>1.000051925407993</v>
       </c>
       <c r="H11">
-        <v>1.000045995274921</v>
+        <v>0.9999281346036587</v>
       </c>
       <c r="I11">
-        <v>1.000016857197494</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="J11">
-        <v>1.000017111610485</v>
+        <v>0.9999768042574331</v>
       </c>
       <c r="K11">
-        <v>1.000016857197494</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="L11">
-        <v>1.000017220649825</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="M11">
-        <v>0.9999744255173353</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="N11">
-        <v>0.9999744255173353</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="O11">
-        <v>0.9999703870208778</v>
+        <v>1.000038591524244</v>
       </c>
       <c r="P11">
-        <v>0.9999885694107215</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="Q11">
-        <v>0.9999885694107215</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="R11">
-        <v>0.9999956413574146</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="S11">
-        <v>0.9999956413574146</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="T11">
-        <v>0.9999985208575888</v>
+        <v>1.000000808416465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004200403778915</v>
+        <v>0.9999214912258436</v>
       </c>
       <c r="D12">
-        <v>0.9988664982305994</v>
+        <v>1.000018001960095</v>
       </c>
       <c r="E12">
-        <v>1.004200403778915</v>
+        <v>0.9999214912258436</v>
       </c>
       <c r="F12">
-        <v>0.99910002820731</v>
+        <v>1.000022552609746</v>
       </c>
       <c r="G12">
-        <v>1.002364265628935</v>
+        <v>0.9999578707955761</v>
       </c>
       <c r="H12">
-        <v>0.9969328314123224</v>
+        <v>1.000047140132468</v>
       </c>
       <c r="I12">
-        <v>0.99910002820731</v>
+        <v>1.000022552609746</v>
       </c>
       <c r="J12">
-        <v>0.9989345848400207</v>
+        <v>1.000019327090126</v>
       </c>
       <c r="K12">
-        <v>0.99910002820731</v>
+        <v>1.000022552609746</v>
       </c>
       <c r="L12">
-        <v>0.9988664982305994</v>
+        <v>1.000018001960095</v>
       </c>
       <c r="M12">
-        <v>1.001533451004757</v>
+        <v>0.9999697465929694</v>
       </c>
       <c r="N12">
-        <v>1.001533451004757</v>
+        <v>0.9999697465929694</v>
       </c>
       <c r="O12">
-        <v>1.001810389212816</v>
+        <v>0.9999657879938383</v>
       </c>
       <c r="P12">
-        <v>1.000722310072275</v>
+        <v>0.9999873485985615</v>
       </c>
       <c r="Q12">
-        <v>1.000722310072275</v>
+        <v>0.9999873485985615</v>
       </c>
       <c r="R12">
-        <v>1.000316739606034</v>
+        <v>0.9999961496013576</v>
       </c>
       <c r="S12">
-        <v>1.000316739606034</v>
+        <v>0.9999961496013576</v>
       </c>
       <c r="T12">
-        <v>1.000066435349684</v>
+        <v>0.9999977306356423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00117286755805</v>
+        <v>0.999667661831615</v>
       </c>
       <c r="D13">
-        <v>0.9997421207400775</v>
+        <v>1.000077170253978</v>
       </c>
       <c r="E13">
-        <v>1.00117286755805</v>
+        <v>0.999667661831615</v>
       </c>
       <c r="F13">
-        <v>0.9996431778386737</v>
+        <v>1.000093728835337</v>
       </c>
       <c r="G13">
-        <v>1.00062217499964</v>
+        <v>0.9998210435361008</v>
       </c>
       <c r="H13">
-        <v>0.9993311734613575</v>
+        <v>1.000202632786555</v>
       </c>
       <c r="I13">
-        <v>0.9996431778386737</v>
+        <v>1.000093728835337</v>
       </c>
       <c r="J13">
-        <v>0.9997132734756337</v>
+        <v>1.000081996803348</v>
       </c>
       <c r="K13">
-        <v>0.9996431778386737</v>
+        <v>1.000093728835337</v>
       </c>
       <c r="L13">
-        <v>0.9997421207400775</v>
+        <v>1.000077170253978</v>
       </c>
       <c r="M13">
-        <v>1.000457494149064</v>
+        <v>0.9998724160427965</v>
       </c>
       <c r="N13">
-        <v>1.000457494149064</v>
+        <v>0.9998724160427965</v>
       </c>
       <c r="O13">
-        <v>1.000512387765923</v>
+        <v>0.999855291873898</v>
       </c>
       <c r="P13">
-        <v>1.000186055378934</v>
+        <v>0.9999461869736433</v>
       </c>
       <c r="Q13">
-        <v>1.000186055378934</v>
+        <v>0.9999461869736432</v>
       </c>
       <c r="R13">
-        <v>1.000050335993869</v>
+        <v>0.9999830724390667</v>
       </c>
       <c r="S13">
-        <v>1.000050335993869</v>
+        <v>0.9999830724390667</v>
       </c>
       <c r="T13">
-        <v>1.000037464678905</v>
+        <v>0.999990705674489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.010876129236714</v>
+        <v>1.000580824784717</v>
       </c>
       <c r="D14">
-        <v>0.9973516768175865</v>
+        <v>0.9998474072875968</v>
       </c>
       <c r="E14">
-        <v>1.010876129236714</v>
+        <v>1.000580824784717</v>
       </c>
       <c r="F14">
-        <v>0.9971536907267378</v>
+        <v>0.9998680808962639</v>
       </c>
       <c r="G14">
-        <v>1.005936055402987</v>
+        <v>1.000324240530093</v>
       </c>
       <c r="H14">
-        <v>0.9929755077829272</v>
+        <v>0.9995891582934709</v>
       </c>
       <c r="I14">
-        <v>0.9971536907267378</v>
+        <v>0.9998680808962639</v>
       </c>
       <c r="J14">
-        <v>0.997293954603883</v>
+        <v>0.9998534378733382</v>
       </c>
       <c r="K14">
-        <v>0.9971536907267378</v>
+        <v>0.9998680808962639</v>
       </c>
       <c r="L14">
-        <v>0.9973516768175865</v>
+        <v>0.9998474072875968</v>
       </c>
       <c r="M14">
-        <v>1.00411390302715</v>
+        <v>1.000214116036157</v>
       </c>
       <c r="N14">
-        <v>1.00411390302715</v>
+        <v>1.000214116036157</v>
       </c>
       <c r="O14">
-        <v>1.004721287152429</v>
+        <v>1.000250824200802</v>
       </c>
       <c r="P14">
-        <v>1.001793832260346</v>
+        <v>1.000098770989526</v>
       </c>
       <c r="Q14">
-        <v>1.001793832260346</v>
+        <v>1.000098770989526</v>
       </c>
       <c r="R14">
-        <v>1.000633796876944</v>
+        <v>1.00004109846621</v>
       </c>
       <c r="S14">
-        <v>1.000633796876944</v>
+        <v>1.00004109846621</v>
       </c>
       <c r="T14">
-        <v>1.000264502428472</v>
+        <v>1.000010524944247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002904283654747</v>
+        <v>1.000212012011146</v>
       </c>
       <c r="D15">
-        <v>0.9992455399269431</v>
+        <v>0.999944156172735</v>
       </c>
       <c r="E15">
-        <v>1.002904283654747</v>
+        <v>1.000212012011146</v>
       </c>
       <c r="F15">
-        <v>0.9993250225405822</v>
+        <v>0.9999521106981792</v>
       </c>
       <c r="G15">
-        <v>1.001615752455668</v>
+        <v>1.000118445265329</v>
       </c>
       <c r="H15">
-        <v>0.997972974214935</v>
+        <v>0.9998495692336242</v>
       </c>
       <c r="I15">
-        <v>0.9993250225405822</v>
+        <v>0.9999521106981792</v>
       </c>
       <c r="J15">
-        <v>0.9992687179876569</v>
+        <v>0.9999464737245315</v>
       </c>
       <c r="K15">
-        <v>0.9993250225405822</v>
+        <v>0.9999521106981792</v>
       </c>
       <c r="L15">
-        <v>0.9992455399269431</v>
+        <v>0.999944156172735</v>
       </c>
       <c r="M15">
-        <v>1.001074911790845</v>
+        <v>1.00007808409194</v>
       </c>
       <c r="N15">
-        <v>1.001074911790845</v>
+        <v>1.00007808409194</v>
       </c>
       <c r="O15">
-        <v>1.001255192012452</v>
+        <v>1.000091537816403</v>
       </c>
       <c r="P15">
-        <v>1.000491615374091</v>
+        <v>1.000036092960687</v>
       </c>
       <c r="Q15">
-        <v>1.000491615374091</v>
+        <v>1.000036092960687</v>
       </c>
       <c r="R15">
-        <v>1.000199967165714</v>
+        <v>1.00001509739506</v>
       </c>
       <c r="S15">
-        <v>1.000199967165714</v>
+        <v>1.00001509739506</v>
       </c>
       <c r="T15">
-        <v>1.000055381796755</v>
+        <v>1.000003794517591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004139938171331</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="D16">
-        <v>0.9989169129985072</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="E16">
-        <v>1.004139938171331</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="F16">
-        <v>0.9990515989821677</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="G16">
-        <v>1.002308132441933</v>
+        <v>1.000228650863356</v>
       </c>
       <c r="H16">
-        <v>0.99708611152136</v>
+        <v>0.9997093715599369</v>
       </c>
       <c r="I16">
-        <v>0.9990515989821677</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="J16">
-        <v>0.9989561831310648</v>
+        <v>0.9998966838201495</v>
       </c>
       <c r="K16">
-        <v>0.9990515989821677</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="L16">
-        <v>0.9989169129985072</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="M16">
-        <v>1.001528425584919</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="N16">
-        <v>1.001528425584919</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="O16">
-        <v>1.001788327870591</v>
+        <v>1.000176647813653</v>
       </c>
       <c r="P16">
-        <v>1.000702816717335</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="Q16">
-        <v>1.000702816717335</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="R16">
-        <v>1.000290012283543</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="S16">
-        <v>1.000290012283543</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="T16">
-        <v>1.000076479541061</v>
+        <v>1.000007292174317</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003391178025306</v>
+        <v>1.000785053342422</v>
       </c>
       <c r="D17">
-        <v>0.9991275232178822</v>
+        <v>0.9997937714625234</v>
       </c>
       <c r="E17">
-        <v>1.003391178025306</v>
+        <v>1.000785053342422</v>
       </c>
       <c r="F17">
-        <v>0.9991966326916326</v>
+        <v>0.9998216742360626</v>
       </c>
       <c r="G17">
-        <v>1.001881138646519</v>
+        <v>1.000438235425027</v>
       </c>
       <c r="H17">
-        <v>0.9976602307125939</v>
+        <v>0.9994447397736008</v>
       </c>
       <c r="I17">
-        <v>0.9991966326916326</v>
+        <v>0.9998216742360626</v>
       </c>
       <c r="J17">
-        <v>0.9991476734144294</v>
+        <v>0.999801907427656</v>
       </c>
       <c r="K17">
-        <v>0.9991966326916326</v>
+        <v>0.9998216742360626</v>
       </c>
       <c r="L17">
-        <v>0.9991275232178822</v>
+        <v>0.9997937714625234</v>
       </c>
       <c r="M17">
-        <v>1.001259350621594</v>
+        <v>1.000289412402473</v>
       </c>
       <c r="N17">
-        <v>1.001259350621594</v>
+        <v>1.000289412402473</v>
       </c>
       <c r="O17">
-        <v>1.001466613296569</v>
+        <v>1.000339020076658</v>
       </c>
       <c r="P17">
-        <v>1.000571777978274</v>
+        <v>1.000133499680336</v>
       </c>
       <c r="Q17">
-        <v>1.000571777978274</v>
+        <v>1.000133499680336</v>
       </c>
       <c r="R17">
-        <v>1.000227991656613</v>
+        <v>1.000055543319268</v>
       </c>
       <c r="S17">
-        <v>1.000227991656613</v>
+        <v>1.000055543319268</v>
       </c>
       <c r="T17">
-        <v>1.000067396118061</v>
+        <v>1.000014230277882</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00185466860902</v>
+        <v>1.001151874372384</v>
       </c>
       <c r="D18">
-        <v>0.9995577866081444</v>
+        <v>0.9996977630593832</v>
       </c>
       <c r="E18">
-        <v>1.00185466860902</v>
+        <v>1.001151874372384</v>
       </c>
       <c r="F18">
-        <v>0.9994977160401893</v>
+        <v>0.9997377199876122</v>
       </c>
       <c r="G18">
-        <v>1.001006163164704</v>
+        <v>1.00064278384057</v>
       </c>
       <c r="H18">
-        <v>0.9988322071357619</v>
+        <v>0.9991864146482434</v>
       </c>
       <c r="I18">
-        <v>0.9994977160401893</v>
+        <v>0.9997377199876122</v>
       </c>
       <c r="J18">
-        <v>0.9995402710178848</v>
+        <v>0.99970940717555</v>
       </c>
       <c r="K18">
-        <v>0.9994977160401893</v>
+        <v>0.9997377199876122</v>
       </c>
       <c r="L18">
-        <v>0.9995577866081444</v>
+        <v>0.9996977630593832</v>
       </c>
       <c r="M18">
-        <v>1.000706227608582</v>
+        <v>1.000424818715884</v>
       </c>
       <c r="N18">
-        <v>1.000706227608582</v>
+        <v>1.000424818715884</v>
       </c>
       <c r="O18">
-        <v>1.000806206127289</v>
+        <v>1.000497473757446</v>
       </c>
       <c r="P18">
-        <v>1.000303390419118</v>
+        <v>1.00019578580646</v>
       </c>
       <c r="Q18">
-        <v>1.000303390419118</v>
+        <v>1.00019578580646</v>
       </c>
       <c r="R18">
-        <v>1.000101971824386</v>
+        <v>1.000081269351748</v>
       </c>
       <c r="S18">
-        <v>1.000101971824386</v>
+        <v>1.000081269351748</v>
       </c>
       <c r="T18">
-        <v>1.000048135429284</v>
+        <v>1.000020993847291</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001945996177078</v>
+        <v>1.000008043052059</v>
       </c>
       <c r="D19">
-        <v>0.9995451945272771</v>
+        <v>0.9999981678615585</v>
       </c>
       <c r="E19">
-        <v>1.001945996177078</v>
+        <v>1.000008043052059</v>
       </c>
       <c r="F19">
-        <v>0.9994564566338987</v>
+        <v>0.999997667704457</v>
       </c>
       <c r="G19">
-        <v>1.001049762719113</v>
+        <v>1.000004305300237</v>
       </c>
       <c r="H19">
-        <v>0.9988040839028025</v>
+        <v>0.9999952114597747</v>
       </c>
       <c r="I19">
-        <v>0.9994564566338987</v>
+        <v>0.999997667704457</v>
       </c>
       <c r="J19">
-        <v>0.9995193245881533</v>
+        <v>0.9999980203685245</v>
       </c>
       <c r="K19">
-        <v>0.9994564566338987</v>
+        <v>0.999997667704457</v>
       </c>
       <c r="L19">
-        <v>0.9995451945272771</v>
+        <v>0.9999981678615585</v>
       </c>
       <c r="M19">
-        <v>1.000745595352178</v>
+        <v>1.000003105456809</v>
       </c>
       <c r="N19">
-        <v>1.000745595352178</v>
+        <v>1.000003105456809</v>
       </c>
       <c r="O19">
-        <v>1.000846984474489</v>
+        <v>1.000003505404618</v>
       </c>
       <c r="P19">
-        <v>1.000315882446084</v>
+        <v>1.000001292872691</v>
       </c>
       <c r="Q19">
-        <v>1.000315882446084</v>
+        <v>1.000001292872691</v>
       </c>
       <c r="R19">
-        <v>1.000101025993038</v>
+        <v>1.000000386580633</v>
       </c>
       <c r="S19">
-        <v>1.000101025993038</v>
+        <v>1.000000386580633</v>
       </c>
       <c r="T19">
-        <v>1.000053469758054</v>
+        <v>1.000000235957768</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000002080130893</v>
+        <v>0.9999961489381901</v>
       </c>
       <c r="D20">
-        <v>1.000000387191945</v>
+        <v>1.000001271984295</v>
       </c>
       <c r="E20">
-        <v>1.000002080130893</v>
+        <v>0.9999961489381901</v>
       </c>
       <c r="F20">
-        <v>0.9999978469078268</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="G20">
-        <v>1.000000553762923</v>
+        <v>0.9999976786558548</v>
       </c>
       <c r="H20">
-        <v>1.000001518189854</v>
+        <v>1.000003559009432</v>
       </c>
       <c r="I20">
-        <v>0.9999978469078268</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="J20">
-        <v>0.9999996448166895</v>
+        <v>1.000001017910256</v>
       </c>
       <c r="K20">
-        <v>0.9999978469078268</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="L20">
-        <v>1.000000387191945</v>
+        <v>1.000001271984295</v>
       </c>
       <c r="M20">
-        <v>1.000001233661419</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="N20">
-        <v>1.000001233661419</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="O20">
-        <v>1.000001007028587</v>
+        <v>0.9999983665261132</v>
       </c>
       <c r="P20">
-        <v>1.000000104743554</v>
+        <v>0.9999992756793935</v>
       </c>
       <c r="Q20">
-        <v>1.000000104743554</v>
+        <v>0.9999992756793935</v>
       </c>
       <c r="R20">
-        <v>0.9999995402846227</v>
+        <v>0.9999995582884691</v>
       </c>
       <c r="S20">
-        <v>0.9999995402846227</v>
+        <v>0.9999995582884691</v>
       </c>
       <c r="T20">
-        <v>1.000000338500022</v>
+        <v>1.000000013768954</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000017645014676</v>
+        <v>0.9999858999788127</v>
       </c>
       <c r="D21">
-        <v>0.9999946548356774</v>
+        <v>1.000003637702651</v>
       </c>
       <c r="E21">
-        <v>1.000017645014676</v>
+        <v>0.9999858999788127</v>
       </c>
       <c r="F21">
-        <v>0.9999972696301132</v>
+        <v>1.000003321359308</v>
       </c>
       <c r="G21">
-        <v>1.000010307512805</v>
+        <v>0.9999921689107177</v>
       </c>
       <c r="H21">
-        <v>0.9999852499857477</v>
+        <v>1.000009764177831</v>
       </c>
       <c r="I21">
-        <v>0.9999972696301132</v>
+        <v>1.000003321359308</v>
       </c>
       <c r="J21">
-        <v>0.9999954158568256</v>
+        <v>1.00000354431406</v>
       </c>
       <c r="K21">
-        <v>0.9999972696301132</v>
+        <v>1.000003321359308</v>
       </c>
       <c r="L21">
-        <v>0.9999946548356774</v>
+        <v>1.000003637702651</v>
       </c>
       <c r="M21">
-        <v>1.000006149925177</v>
+        <v>0.9999947688407318</v>
       </c>
       <c r="N21">
-        <v>1.000006149925177</v>
+        <v>0.9999947688407318</v>
       </c>
       <c r="O21">
-        <v>1.000007535787719</v>
+        <v>0.9999939021973937</v>
       </c>
       <c r="P21">
-        <v>1.000003189826822</v>
+        <v>0.9999976196802574</v>
       </c>
       <c r="Q21">
-        <v>1.000003189826822</v>
+        <v>0.9999976196802574</v>
       </c>
       <c r="R21">
-        <v>1.000001709777645</v>
+        <v>0.9999990451000201</v>
       </c>
       <c r="S21">
-        <v>1.000001709777645</v>
+        <v>0.9999990451000201</v>
       </c>
       <c r="T21">
-        <v>1.000000090472641</v>
+        <v>0.9999997227405636</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000068218552957</v>
+        <v>0.999979313964276</v>
       </c>
       <c r="D22">
-        <v>0.9999843178703398</v>
+        <v>1.000005814764151</v>
       </c>
       <c r="E22">
-        <v>1.000068218552957</v>
+        <v>0.999979313964276</v>
       </c>
       <c r="F22">
-        <v>0.9999804747000398</v>
+        <v>1.000004015057136</v>
       </c>
       <c r="G22">
-        <v>1.000036631183552</v>
+        <v>0.9999882037822824</v>
       </c>
       <c r="H22">
-        <v>0.9999589141850288</v>
+        <v>1.000015850594845</v>
       </c>
       <c r="I22">
-        <v>0.9999804747000398</v>
+        <v>1.000004015057136</v>
       </c>
       <c r="J22">
-        <v>0.9999831963848483</v>
+        <v>1.000005287516803</v>
       </c>
       <c r="K22">
-        <v>0.9999804747000398</v>
+        <v>1.000004015057136</v>
       </c>
       <c r="L22">
-        <v>0.9999843178703398</v>
+        <v>1.000005814764151</v>
       </c>
       <c r="M22">
-        <v>1.000026268211648</v>
+        <v>0.9999925643642136</v>
       </c>
       <c r="N22">
-        <v>1.000026268211648</v>
+        <v>0.9999925643642136</v>
       </c>
       <c r="O22">
-        <v>1.000029722535616</v>
+        <v>0.9999911108369032</v>
       </c>
       <c r="P22">
-        <v>1.000011003707779</v>
+        <v>0.9999963812618543</v>
       </c>
       <c r="Q22">
-        <v>1.000011003707779</v>
+        <v>0.9999963812618543</v>
       </c>
       <c r="R22">
-        <v>1.000003371455844</v>
+        <v>0.9999982897106746</v>
       </c>
       <c r="S22">
-        <v>1.000003371455844</v>
+        <v>0.9999982897106746</v>
       </c>
       <c r="T22">
-        <v>1.000001958812794</v>
+        <v>0.9999997476132489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999316303848451</v>
+      </c>
+      <c r="D23">
+        <v>1.000017220649825</v>
+      </c>
+      <c r="E23">
+        <v>0.9999316303848451</v>
+      </c>
+      <c r="F23">
+        <v>1.000016857197494</v>
+      </c>
+      <c r="G23">
+        <v>0.9999623100279628</v>
+      </c>
+      <c r="H23">
+        <v>1.000045995274921</v>
+      </c>
+      <c r="I23">
+        <v>1.000016857197494</v>
+      </c>
+      <c r="J23">
+        <v>1.000017111610485</v>
+      </c>
+      <c r="K23">
+        <v>1.000016857197494</v>
+      </c>
+      <c r="L23">
+        <v>1.000017220649825</v>
+      </c>
+      <c r="M23">
+        <v>0.9999744255173353</v>
+      </c>
+      <c r="N23">
+        <v>0.9999744255173353</v>
+      </c>
+      <c r="O23">
+        <v>0.9999703870208778</v>
+      </c>
+      <c r="P23">
+        <v>0.9999885694107215</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999885694107215</v>
+      </c>
+      <c r="R23">
+        <v>0.9999956413574146</v>
+      </c>
+      <c r="S23">
+        <v>0.9999956413574146</v>
+      </c>
+      <c r="T23">
+        <v>0.9999985208575888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.004200403778915</v>
+      </c>
+      <c r="D24">
+        <v>0.9988664982305994</v>
+      </c>
+      <c r="E24">
+        <v>1.004200403778915</v>
+      </c>
+      <c r="F24">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="G24">
+        <v>1.002364265628935</v>
+      </c>
+      <c r="H24">
+        <v>0.9969328314123224</v>
+      </c>
+      <c r="I24">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="J24">
+        <v>0.9989345848400207</v>
+      </c>
+      <c r="K24">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="L24">
+        <v>0.9988664982305994</v>
+      </c>
+      <c r="M24">
+        <v>1.001533451004757</v>
+      </c>
+      <c r="N24">
+        <v>1.001533451004757</v>
+      </c>
+      <c r="O24">
+        <v>1.001810389212816</v>
+      </c>
+      <c r="P24">
+        <v>1.000722310072275</v>
+      </c>
+      <c r="Q24">
+        <v>1.000722310072275</v>
+      </c>
+      <c r="R24">
+        <v>1.000316739606034</v>
+      </c>
+      <c r="S24">
+        <v>1.000316739606034</v>
+      </c>
+      <c r="T24">
+        <v>1.000066435349684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.00117286755805</v>
+      </c>
+      <c r="D25">
+        <v>0.9997421207400775</v>
+      </c>
+      <c r="E25">
+        <v>1.00117286755805</v>
+      </c>
+      <c r="F25">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="G25">
+        <v>1.00062217499964</v>
+      </c>
+      <c r="H25">
+        <v>0.9993311734613575</v>
+      </c>
+      <c r="I25">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="J25">
+        <v>0.9997132734756337</v>
+      </c>
+      <c r="K25">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="L25">
+        <v>0.9997421207400775</v>
+      </c>
+      <c r="M25">
+        <v>1.000457494149064</v>
+      </c>
+      <c r="N25">
+        <v>1.000457494149064</v>
+      </c>
+      <c r="O25">
+        <v>1.000512387765923</v>
+      </c>
+      <c r="P25">
+        <v>1.000186055378934</v>
+      </c>
+      <c r="Q25">
+        <v>1.000186055378934</v>
+      </c>
+      <c r="R25">
+        <v>1.000050335993869</v>
+      </c>
+      <c r="S25">
+        <v>1.000050335993869</v>
+      </c>
+      <c r="T25">
+        <v>1.000037464678905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.010876129236714</v>
+      </c>
+      <c r="D26">
+        <v>0.9973516768175865</v>
+      </c>
+      <c r="E26">
+        <v>1.010876129236714</v>
+      </c>
+      <c r="F26">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="G26">
+        <v>1.005936055402987</v>
+      </c>
+      <c r="H26">
+        <v>0.9929755077829272</v>
+      </c>
+      <c r="I26">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="J26">
+        <v>0.997293954603883</v>
+      </c>
+      <c r="K26">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="L26">
+        <v>0.9973516768175865</v>
+      </c>
+      <c r="M26">
+        <v>1.00411390302715</v>
+      </c>
+      <c r="N26">
+        <v>1.00411390302715</v>
+      </c>
+      <c r="O26">
+        <v>1.004721287152429</v>
+      </c>
+      <c r="P26">
+        <v>1.001793832260346</v>
+      </c>
+      <c r="Q26">
+        <v>1.001793832260346</v>
+      </c>
+      <c r="R26">
+        <v>1.000633796876944</v>
+      </c>
+      <c r="S26">
+        <v>1.000633796876944</v>
+      </c>
+      <c r="T26">
+        <v>1.000264502428472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.002904283654747</v>
+      </c>
+      <c r="D27">
+        <v>0.9992455399269431</v>
+      </c>
+      <c r="E27">
+        <v>1.002904283654747</v>
+      </c>
+      <c r="F27">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="G27">
+        <v>1.001615752455668</v>
+      </c>
+      <c r="H27">
+        <v>0.997972974214935</v>
+      </c>
+      <c r="I27">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="J27">
+        <v>0.9992687179876569</v>
+      </c>
+      <c r="K27">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="L27">
+        <v>0.9992455399269431</v>
+      </c>
+      <c r="M27">
+        <v>1.001074911790845</v>
+      </c>
+      <c r="N27">
+        <v>1.001074911790845</v>
+      </c>
+      <c r="O27">
+        <v>1.001255192012452</v>
+      </c>
+      <c r="P27">
+        <v>1.000491615374091</v>
+      </c>
+      <c r="Q27">
+        <v>1.000491615374091</v>
+      </c>
+      <c r="R27">
+        <v>1.000199967165714</v>
+      </c>
+      <c r="S27">
+        <v>1.000199967165714</v>
+      </c>
+      <c r="T27">
+        <v>1.000055381796755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.004139938171331</v>
+      </c>
+      <c r="D28">
+        <v>0.9989169129985072</v>
+      </c>
+      <c r="E28">
+        <v>1.004139938171331</v>
+      </c>
+      <c r="F28">
+        <v>0.9990515989821677</v>
+      </c>
+      <c r="G28">
+        <v>1.002308132441933</v>
+      </c>
+      <c r="H28">
+        <v>0.99708611152136</v>
+      </c>
+      <c r="I28">
+        <v>0.9990515989821677</v>
+      </c>
+      <c r="J28">
+        <v>0.9989561831310648</v>
+      </c>
+      <c r="K28">
+        <v>0.9990515989821677</v>
+      </c>
+      <c r="L28">
+        <v>0.9989169129985072</v>
+      </c>
+      <c r="M28">
+        <v>1.001528425584919</v>
+      </c>
+      <c r="N28">
+        <v>1.001528425584919</v>
+      </c>
+      <c r="O28">
+        <v>1.001788327870591</v>
+      </c>
+      <c r="P28">
+        <v>1.000702816717335</v>
+      </c>
+      <c r="Q28">
+        <v>1.000702816717335</v>
+      </c>
+      <c r="R28">
+        <v>1.000290012283543</v>
+      </c>
+      <c r="S28">
+        <v>1.000290012283543</v>
+      </c>
+      <c r="T28">
+        <v>1.000076479541061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.003391178025306</v>
+      </c>
+      <c r="D29">
+        <v>0.9991275232178822</v>
+      </c>
+      <c r="E29">
+        <v>1.003391178025306</v>
+      </c>
+      <c r="F29">
+        <v>0.9991966326916326</v>
+      </c>
+      <c r="G29">
+        <v>1.001881138646519</v>
+      </c>
+      <c r="H29">
+        <v>0.9976602307125939</v>
+      </c>
+      <c r="I29">
+        <v>0.9991966326916326</v>
+      </c>
+      <c r="J29">
+        <v>0.9991476734144294</v>
+      </c>
+      <c r="K29">
+        <v>0.9991966326916326</v>
+      </c>
+      <c r="L29">
+        <v>0.9991275232178822</v>
+      </c>
+      <c r="M29">
+        <v>1.001259350621594</v>
+      </c>
+      <c r="N29">
+        <v>1.001259350621594</v>
+      </c>
+      <c r="O29">
+        <v>1.001466613296569</v>
+      </c>
+      <c r="P29">
+        <v>1.000571777978274</v>
+      </c>
+      <c r="Q29">
+        <v>1.000571777978274</v>
+      </c>
+      <c r="R29">
+        <v>1.000227991656613</v>
+      </c>
+      <c r="S29">
+        <v>1.000227991656613</v>
+      </c>
+      <c r="T29">
+        <v>1.000067396118061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00185466860902</v>
+      </c>
+      <c r="D30">
+        <v>0.9995577866081444</v>
+      </c>
+      <c r="E30">
+        <v>1.00185466860902</v>
+      </c>
+      <c r="F30">
+        <v>0.9994977160401893</v>
+      </c>
+      <c r="G30">
+        <v>1.001006163164704</v>
+      </c>
+      <c r="H30">
+        <v>0.9988322071357619</v>
+      </c>
+      <c r="I30">
+        <v>0.9994977160401893</v>
+      </c>
+      <c r="J30">
+        <v>0.9995402710178848</v>
+      </c>
+      <c r="K30">
+        <v>0.9994977160401893</v>
+      </c>
+      <c r="L30">
+        <v>0.9995577866081444</v>
+      </c>
+      <c r="M30">
+        <v>1.000706227608582</v>
+      </c>
+      <c r="N30">
+        <v>1.000706227608582</v>
+      </c>
+      <c r="O30">
+        <v>1.000806206127289</v>
+      </c>
+      <c r="P30">
+        <v>1.000303390419118</v>
+      </c>
+      <c r="Q30">
+        <v>1.000303390419118</v>
+      </c>
+      <c r="R30">
+        <v>1.000101971824386</v>
+      </c>
+      <c r="S30">
+        <v>1.000101971824386</v>
+      </c>
+      <c r="T30">
+        <v>1.000048135429284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001945996177078</v>
+      </c>
+      <c r="D31">
+        <v>0.9995451945272771</v>
+      </c>
+      <c r="E31">
+        <v>1.001945996177078</v>
+      </c>
+      <c r="F31">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="G31">
+        <v>1.001049762719113</v>
+      </c>
+      <c r="H31">
+        <v>0.9988040839028025</v>
+      </c>
+      <c r="I31">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="J31">
+        <v>0.9995193245881533</v>
+      </c>
+      <c r="K31">
+        <v>0.9994564566338987</v>
+      </c>
+      <c r="L31">
+        <v>0.9995451945272771</v>
+      </c>
+      <c r="M31">
+        <v>1.000745595352178</v>
+      </c>
+      <c r="N31">
+        <v>1.000745595352178</v>
+      </c>
+      <c r="O31">
+        <v>1.000846984474489</v>
+      </c>
+      <c r="P31">
+        <v>1.000315882446084</v>
+      </c>
+      <c r="Q31">
+        <v>1.000315882446084</v>
+      </c>
+      <c r="R31">
+        <v>1.000101025993038</v>
+      </c>
+      <c r="S31">
+        <v>1.000101025993038</v>
+      </c>
+      <c r="T31">
+        <v>1.000053469758054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004169970136987</v>
+      </c>
+      <c r="D32">
+        <v>0.9988809315068496</v>
+      </c>
+      <c r="E32">
+        <v>1.004169970136987</v>
+      </c>
+      <c r="F32">
+        <v>0.9990953435616444</v>
+      </c>
+      <c r="G32">
+        <v>1.002343100547945</v>
+      </c>
+      <c r="H32">
+        <v>0.9969749736986299</v>
+      </c>
+      <c r="I32">
+        <v>0.9990953435616444</v>
+      </c>
+      <c r="J32">
+        <v>0.9989434463013699</v>
+      </c>
+      <c r="K32">
+        <v>0.9990953435616444</v>
+      </c>
+      <c r="L32">
+        <v>0.9988809315068496</v>
+      </c>
+      <c r="M32">
+        <v>1.001525450821918</v>
+      </c>
+      <c r="N32">
+        <v>1.001525450821918</v>
+      </c>
+      <c r="O32">
+        <v>1.001798000730594</v>
+      </c>
+      <c r="P32">
+        <v>1.000715415068494</v>
+      </c>
+      <c r="Q32">
+        <v>1.000715415068494</v>
+      </c>
+      <c r="R32">
+        <v>1.000310397191781</v>
+      </c>
+      <c r="S32">
+        <v>1.000310397191781</v>
+      </c>
+      <c r="T32">
+        <v>1.000067960958904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9816601321052634</v>
+      </c>
+      <c r="D33">
+        <v>1.004726203684211</v>
+      </c>
+      <c r="E33">
+        <v>0.9816601321052634</v>
+      </c>
+      <c r="F33">
+        <v>1.004330741578947</v>
+      </c>
+      <c r="G33">
+        <v>0.9898215452631578</v>
+      </c>
+      <c r="H33">
+        <v>1.012678551052631</v>
+      </c>
+      <c r="I33">
+        <v>1.004330741578947</v>
+      </c>
+      <c r="J33">
+        <v>1.004610904736842</v>
+      </c>
+      <c r="K33">
+        <v>1.004330741578947</v>
+      </c>
+      <c r="L33">
+        <v>1.004726203684211</v>
+      </c>
+      <c r="M33">
+        <v>0.993193167894737</v>
+      </c>
+      <c r="N33">
+        <v>0.993193167894737</v>
+      </c>
+      <c r="O33">
+        <v>0.9920692936842106</v>
+      </c>
+      <c r="P33">
+        <v>0.9969056924561404</v>
+      </c>
+      <c r="Q33">
+        <v>0.9969056924561404</v>
+      </c>
+      <c r="R33">
+        <v>0.998761954736842</v>
+      </c>
+      <c r="S33">
+        <v>0.998761954736842</v>
+      </c>
+      <c r="T33">
+        <v>0.9996380130701755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9685133478947365</v>
+      </c>
+      <c r="D34">
+        <v>1.007823122105263</v>
+      </c>
+      <c r="E34">
+        <v>0.9685133478947365</v>
+      </c>
+      <c r="F34">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="G34">
+        <v>0.9827138021052632</v>
+      </c>
+      <c r="H34">
+        <v>1.020835765789474</v>
+      </c>
+      <c r="I34">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="J34">
+        <v>1.007862742105263</v>
+      </c>
+      <c r="K34">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="L34">
+        <v>1.007823122105263</v>
+      </c>
+      <c r="M34">
+        <v>0.988168235</v>
+      </c>
+      <c r="N34">
+        <v>0.988168235</v>
+      </c>
+      <c r="O34">
+        <v>0.9863500907017544</v>
+      </c>
+      <c r="P34">
+        <v>0.9947651708771929</v>
+      </c>
+      <c r="Q34">
+        <v>0.9947651708771929</v>
+      </c>
+      <c r="R34">
+        <v>0.9980636388157893</v>
+      </c>
+      <c r="S34">
+        <v>0.9980636388157893</v>
+      </c>
+      <c r="T34">
+        <v>0.9992846371052631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.007735621555402</v>
+      </c>
+      <c r="D35">
+        <v>0.9981916161553696</v>
+      </c>
+      <c r="E35">
+        <v>1.007735621555402</v>
+      </c>
+      <c r="F35">
+        <v>0.997840139672902</v>
+      </c>
+      <c r="G35">
+        <v>1.004173239994859</v>
+      </c>
+      <c r="H35">
+        <v>0.9952445958786501</v>
+      </c>
+      <c r="I35">
+        <v>0.997840139672902</v>
+      </c>
+      <c r="J35">
+        <v>0.998089144912244</v>
+      </c>
+      <c r="K35">
+        <v>0.997840139672902</v>
+      </c>
+      <c r="L35">
+        <v>0.9981916161553696</v>
+      </c>
+      <c r="M35">
+        <v>1.002963618855386</v>
+      </c>
+      <c r="N35">
+        <v>1.002963618855386</v>
+      </c>
+      <c r="O35">
+        <v>1.003366825901877</v>
+      </c>
+      <c r="P35">
+        <v>1.001255792461224</v>
+      </c>
+      <c r="Q35">
+        <v>1.001255792461225</v>
+      </c>
+      <c r="R35">
+        <v>1.000401879264144</v>
+      </c>
+      <c r="S35">
+        <v>1.000401879264144</v>
+      </c>
+      <c r="T35">
+        <v>1.000212393028238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000002080130893</v>
+      </c>
+      <c r="D36">
+        <v>1.000000387191945</v>
+      </c>
+      <c r="E36">
+        <v>1.000002080130893</v>
+      </c>
+      <c r="F36">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="G36">
+        <v>1.000000553762923</v>
+      </c>
+      <c r="H36">
+        <v>1.000001518189854</v>
+      </c>
+      <c r="I36">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="J36">
+        <v>0.9999996448166895</v>
+      </c>
+      <c r="K36">
+        <v>0.9999978469078268</v>
+      </c>
+      <c r="L36">
+        <v>1.000000387191945</v>
+      </c>
+      <c r="M36">
+        <v>1.000001233661419</v>
+      </c>
+      <c r="N36">
+        <v>1.000001233661419</v>
+      </c>
+      <c r="O36">
+        <v>1.000001007028587</v>
+      </c>
+      <c r="P36">
+        <v>1.000000104743554</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000104743554</v>
+      </c>
+      <c r="R36">
+        <v>0.9999995402846227</v>
+      </c>
+      <c r="S36">
+        <v>0.9999995402846227</v>
+      </c>
+      <c r="T36">
+        <v>1.000000338500022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000017645014676</v>
+      </c>
+      <c r="D37">
+        <v>0.9999946548356774</v>
+      </c>
+      <c r="E37">
+        <v>1.000017645014676</v>
+      </c>
+      <c r="F37">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="G37">
+        <v>1.000010307512805</v>
+      </c>
+      <c r="H37">
+        <v>0.9999852499857477</v>
+      </c>
+      <c r="I37">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="J37">
+        <v>0.9999954158568256</v>
+      </c>
+      <c r="K37">
+        <v>0.9999972696301132</v>
+      </c>
+      <c r="L37">
+        <v>0.9999946548356774</v>
+      </c>
+      <c r="M37">
+        <v>1.000006149925177</v>
+      </c>
+      <c r="N37">
+        <v>1.000006149925177</v>
+      </c>
+      <c r="O37">
+        <v>1.000007535787719</v>
+      </c>
+      <c r="P37">
+        <v>1.000003189826822</v>
+      </c>
+      <c r="Q37">
+        <v>1.000003189826822</v>
+      </c>
+      <c r="R37">
+        <v>1.000001709777645</v>
+      </c>
+      <c r="S37">
+        <v>1.000001709777645</v>
+      </c>
+      <c r="T37">
+        <v>1.000000090472641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000068218552957</v>
+      </c>
+      <c r="D38">
+        <v>0.9999843178703398</v>
+      </c>
+      <c r="E38">
+        <v>1.000068218552957</v>
+      </c>
+      <c r="F38">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="G38">
+        <v>1.000036631183552</v>
+      </c>
+      <c r="H38">
+        <v>0.9999589141850288</v>
+      </c>
+      <c r="I38">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="J38">
+        <v>0.9999831963848483</v>
+      </c>
+      <c r="K38">
+        <v>0.9999804747000398</v>
+      </c>
+      <c r="L38">
+        <v>0.9999843178703398</v>
+      </c>
+      <c r="M38">
+        <v>1.000026268211648</v>
+      </c>
+      <c r="N38">
+        <v>1.000026268211648</v>
+      </c>
+      <c r="O38">
+        <v>1.000029722535616</v>
+      </c>
+      <c r="P38">
+        <v>1.000011003707779</v>
+      </c>
+      <c r="Q38">
+        <v>1.000011003707779</v>
+      </c>
+      <c r="R38">
+        <v>1.000003371455844</v>
+      </c>
+      <c r="S38">
+        <v>1.000003371455844</v>
+      </c>
+      <c r="T38">
+        <v>1.000001958812794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00016299717952</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999648962881014</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00016299717952</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.999949087718171</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000085986209545</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999094044851334</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.999949087718171</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999602875034046</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.999949087718171</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999648962881014</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000063946733811</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000063946733811</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000071293225722</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000025660395264</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000025660395264</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000006517225991</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000006517225991</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000005443230646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9882288304373896</v>
+      </c>
+      <c r="D40">
+        <v>1.002959064252056</v>
+      </c>
+      <c r="E40">
+        <v>0.9882288304373896</v>
+      </c>
+      <c r="F40">
+        <v>1.002913499198825</v>
+      </c>
+      <c r="G40">
+        <v>0.9935153092647107</v>
+      </c>
+      <c r="H40">
+        <v>1.00789952222265</v>
+      </c>
+      <c r="I40">
+        <v>1.002913499198825</v>
+      </c>
+      <c r="J40">
+        <v>1.002945777070448</v>
+      </c>
+      <c r="K40">
+        <v>1.002913499198825</v>
+      </c>
+      <c r="L40">
+        <v>1.002959064252056</v>
+      </c>
+      <c r="M40">
+        <v>0.995593947344723</v>
+      </c>
+      <c r="N40">
+        <v>0.995593947344723</v>
+      </c>
+      <c r="O40">
+        <v>0.9949010679847188</v>
+      </c>
+      <c r="P40">
+        <v>0.998033797962757</v>
+      </c>
+      <c r="Q40">
+        <v>0.998033797962757</v>
+      </c>
+      <c r="R40">
+        <v>0.9992537232717741</v>
+      </c>
+      <c r="S40">
+        <v>0.9992537232717741</v>
+      </c>
+      <c r="T40">
+        <v>0.9997436670743466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.001269856386185</v>
+      </c>
+      <c r="D41">
+        <v>0.9996700396363123</v>
+      </c>
+      <c r="E41">
+        <v>1.001269856386185</v>
+      </c>
+      <c r="F41">
+        <v>0.9997050301511304</v>
+      </c>
+      <c r="G41">
+        <v>1.00070651564548</v>
+      </c>
+      <c r="H41">
+        <v>0.9991134434969663</v>
+      </c>
+      <c r="I41">
+        <v>0.9997050301511304</v>
+      </c>
+      <c r="J41">
+        <v>0.9996802387418253</v>
+      </c>
+      <c r="K41">
+        <v>0.9997050301511304</v>
+      </c>
+      <c r="L41">
+        <v>0.9996700396363123</v>
+      </c>
+      <c r="M41">
+        <v>1.000469948011249</v>
+      </c>
+      <c r="N41">
+        <v>1.000469948011249</v>
+      </c>
+      <c r="O41">
+        <v>1.000548803889326</v>
+      </c>
+      <c r="P41">
+        <v>1.00021497539121</v>
+      </c>
+      <c r="Q41">
+        <v>1.000214975391209</v>
+      </c>
+      <c r="R41">
+        <v>1.000087489081189</v>
+      </c>
+      <c r="S41">
+        <v>1.000087489081189</v>
+      </c>
+      <c r="T41">
+        <v>1.000024187342983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9988937112071812</v>
+      </c>
+      <c r="D42">
+        <v>1.000285280575176</v>
+      </c>
+      <c r="E42">
+        <v>0.9988937112071812</v>
+      </c>
+      <c r="F42">
+        <v>1.000260894643822</v>
+      </c>
+      <c r="G42">
+        <v>0.9993858937081029</v>
+      </c>
+      <c r="H42">
+        <v>1.000765400931289</v>
+      </c>
+      <c r="I42">
+        <v>1.000260894643822</v>
+      </c>
+      <c r="J42">
+        <v>1.000278167596818</v>
+      </c>
+      <c r="K42">
+        <v>1.000260894643822</v>
+      </c>
+      <c r="L42">
+        <v>1.000285280575176</v>
+      </c>
+      <c r="M42">
+        <v>0.9995894958911786</v>
+      </c>
+      <c r="N42">
+        <v>0.9995894958911786</v>
+      </c>
+      <c r="O42">
+        <v>0.99952162849682</v>
+      </c>
+      <c r="P42">
+        <v>0.9998132954753931</v>
+      </c>
+      <c r="Q42">
+        <v>0.9998132954753931</v>
+      </c>
+      <c r="R42">
+        <v>0.9999251952675003</v>
+      </c>
+      <c r="S42">
+        <v>0.9999251952675003</v>
+      </c>
+      <c r="T42">
+        <v>0.9999782247770647</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999521106981792</v>
+        <v>0.9999961489381901</v>
       </c>
       <c r="D3">
-        <v>1.000212012011146</v>
+        <v>1.000001271984295</v>
       </c>
       <c r="E3">
-        <v>0.999944156172735</v>
+        <v>0.9999961489381901</v>
       </c>
       <c r="F3">
-        <v>0.9999521106981792</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="G3">
-        <v>0.9998495692336242</v>
+        <v>0.9999976786558548</v>
       </c>
       <c r="H3">
-        <v>1.000118445265329</v>
+        <v>1.000003559009432</v>
       </c>
       <c r="I3">
-        <v>0.9999464737245315</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="J3">
-        <v>1.000212012011146</v>
+        <v>1.000001017910256</v>
       </c>
       <c r="K3">
-        <v>0.9999521106981792</v>
+        <v>1.000000406115696</v>
       </c>
       <c r="L3">
-        <v>0.999944156172735</v>
+        <v>1.000001271984295</v>
       </c>
       <c r="M3">
-        <v>1.00007808409194</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="N3">
-        <v>1.00007808409194</v>
+        <v>0.9999987104612423</v>
       </c>
       <c r="O3">
-        <v>1.000091537816403</v>
+        <v>0.9999983665261132</v>
       </c>
       <c r="P3">
-        <v>1.000036092960687</v>
+        <v>0.9999992756793935</v>
       </c>
       <c r="Q3">
-        <v>1.000036092960687</v>
+        <v>0.9999992756793935</v>
       </c>
       <c r="R3">
-        <v>1.00001509739506</v>
+        <v>0.9999995582884691</v>
       </c>
       <c r="S3">
-        <v>1.00001509739506</v>
+        <v>0.9999995582884691</v>
       </c>
       <c r="T3">
-        <v>1.000003794517591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000013768954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999077542248577</v>
+        <v>0.9882288304373896</v>
       </c>
       <c r="D4">
-        <v>1.000409161393356</v>
+        <v>1.002959064252056</v>
       </c>
       <c r="E4">
-        <v>0.999892131184248</v>
+        <v>0.9882288304373896</v>
       </c>
       <c r="F4">
-        <v>0.9999077542248577</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="G4">
-        <v>0.9997093715599369</v>
+        <v>0.9935153092647107</v>
       </c>
       <c r="H4">
-        <v>1.000228650863356</v>
+        <v>1.00789952222265</v>
       </c>
       <c r="I4">
-        <v>0.9998966838201495</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="J4">
-        <v>1.000409161393356</v>
+        <v>1.002945777070448</v>
       </c>
       <c r="K4">
-        <v>0.9999077542248577</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="L4">
-        <v>0.999892131184248</v>
+        <v>1.002959064252056</v>
       </c>
       <c r="M4">
-        <v>1.000150646288802</v>
+        <v>0.995593947344723</v>
       </c>
       <c r="N4">
-        <v>1.000150646288802</v>
+        <v>0.995593947344723</v>
       </c>
       <c r="O4">
-        <v>1.000176647813653</v>
+        <v>0.9949010679847188</v>
       </c>
       <c r="P4">
-        <v>1.000069682267487</v>
+        <v>0.998033797962757</v>
       </c>
       <c r="Q4">
-        <v>1.000069682267487</v>
+        <v>0.998033797962757</v>
       </c>
       <c r="R4">
-        <v>1.00002920025683</v>
+        <v>0.9992537232717741</v>
       </c>
       <c r="S4">
-        <v>1.00002920025683</v>
+        <v>0.9992537232717741</v>
       </c>
       <c r="T4">
-        <v>1.000007292174317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9997436670743466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998216742360626</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="D5">
-        <v>1.000785053342422</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="E5">
-        <v>0.9997937714625234</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="F5">
-        <v>0.9998216742360626</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="G5">
-        <v>0.9994447397736008</v>
+        <v>1.000989709121037</v>
       </c>
       <c r="H5">
-        <v>1.000438235425027</v>
+        <v>0.9988593475288198</v>
       </c>
       <c r="I5">
-        <v>0.999801907427656</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="J5">
-        <v>1.000785053342422</v>
+        <v>0.9995474204394819</v>
       </c>
       <c r="K5">
-        <v>0.9998216742360626</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="L5">
-        <v>0.9997937714625234</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="M5">
-        <v>1.000289412402473</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="N5">
-        <v>1.000289412402473</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="O5">
-        <v>1.000339020076658</v>
+        <v>1.000795113537464</v>
       </c>
       <c r="P5">
-        <v>1.000133499680336</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="Q5">
-        <v>1.000133499680336</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="R5">
-        <v>1.000055543319268</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="S5">
-        <v>1.000055543319268</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="T5">
-        <v>1.000014230277882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000048510050433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997377199876122</v>
+        <v>1.007735621555402</v>
       </c>
       <c r="D6">
-        <v>1.001151874372384</v>
+        <v>0.9981916161553696</v>
       </c>
       <c r="E6">
-        <v>0.9996977630593832</v>
+        <v>1.007735621555402</v>
       </c>
       <c r="F6">
-        <v>0.9997377199876122</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="G6">
-        <v>0.9991864146482434</v>
+        <v>1.004173239994859</v>
       </c>
       <c r="H6">
-        <v>1.00064278384057</v>
+        <v>0.9952445958786501</v>
       </c>
       <c r="I6">
-        <v>0.99970940717555</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="J6">
-        <v>1.001151874372384</v>
+        <v>0.998089144912244</v>
       </c>
       <c r="K6">
-        <v>0.9997377199876122</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="L6">
-        <v>0.9996977630593832</v>
+        <v>0.9981916161553696</v>
       </c>
       <c r="M6">
-        <v>1.000424818715884</v>
+        <v>1.002963618855386</v>
       </c>
       <c r="N6">
-        <v>1.000424818715884</v>
+        <v>1.002963618855386</v>
       </c>
       <c r="O6">
-        <v>1.000497473757446</v>
+        <v>1.003366825901877</v>
       </c>
       <c r="P6">
-        <v>1.00019578580646</v>
+        <v>1.001255792461224</v>
       </c>
       <c r="Q6">
-        <v>1.00019578580646</v>
+        <v>1.001255792461225</v>
       </c>
       <c r="R6">
-        <v>1.000081269351748</v>
+        <v>1.000401879264144</v>
       </c>
       <c r="S6">
-        <v>1.000081269351748</v>
+        <v>1.000401879264144</v>
       </c>
       <c r="T6">
-        <v>1.000020993847291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000212393028238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999997667704457</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="D7">
-        <v>1.000008043052059</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="E7">
-        <v>0.9999981678615585</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="F7">
-        <v>0.999997667704457</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="G7">
-        <v>0.9999952114597747</v>
+        <v>1.000051925407993</v>
       </c>
       <c r="H7">
-        <v>1.000004305300237</v>
+        <v>0.9999281346036587</v>
       </c>
       <c r="I7">
-        <v>0.9999980203685245</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="J7">
-        <v>1.000008043052059</v>
+        <v>0.9999768042574331</v>
       </c>
       <c r="K7">
-        <v>0.999997667704457</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="L7">
-        <v>0.9999981678615585</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="M7">
-        <v>1.000003105456809</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="N7">
-        <v>1.000003105456809</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="O7">
-        <v>1.000003505404618</v>
+        <v>1.000038591524244</v>
       </c>
       <c r="P7">
-        <v>1.000001292872691</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="Q7">
-        <v>1.000001292872691</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="R7">
-        <v>1.000000386580633</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="S7">
-        <v>1.000000386580633</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="T7">
-        <v>1.000000235957768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000000808416465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000406115696</v>
+        <v>1.000017645014676</v>
       </c>
       <c r="D8">
-        <v>0.9999961489381901</v>
+        <v>0.9999946548356774</v>
       </c>
       <c r="E8">
-        <v>1.000001271984294</v>
+        <v>1.000017645014676</v>
       </c>
       <c r="F8">
-        <v>1.000000406115696</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="G8">
-        <v>1.000003559009432</v>
+        <v>1.000010307512805</v>
       </c>
       <c r="H8">
-        <v>0.9999976786558548</v>
+        <v>0.9999852499857477</v>
       </c>
       <c r="I8">
-        <v>1.000001017910257</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="J8">
-        <v>0.9999961489381901</v>
+        <v>0.9999954158568256</v>
       </c>
       <c r="K8">
-        <v>1.000000406115696</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="L8">
-        <v>1.000001271984294</v>
+        <v>0.9999946548356774</v>
       </c>
       <c r="M8">
-        <v>0.9999987104612422</v>
+        <v>1.000006149925177</v>
       </c>
       <c r="N8">
-        <v>0.9999987104612422</v>
+        <v>1.000006149925177</v>
       </c>
       <c r="O8">
-        <v>0.9999983665261131</v>
+        <v>1.000007535787719</v>
       </c>
       <c r="P8">
-        <v>0.9999992756793935</v>
+        <v>1.000003189826822</v>
       </c>
       <c r="Q8">
-        <v>0.9999992756793935</v>
+        <v>1.000003189826822</v>
       </c>
       <c r="R8">
-        <v>0.9999995582884691</v>
+        <v>1.000001709777645</v>
       </c>
       <c r="S8">
-        <v>0.9999995582884691</v>
+        <v>1.000001709777645</v>
       </c>
       <c r="T8">
-        <v>1.000000013768954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000090472641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000003321359308</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="D9">
-        <v>0.9999858999788127</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="E9">
-        <v>1.000003637702651</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="F9">
-        <v>1.000003321359308</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="G9">
-        <v>1.000009764177831</v>
+        <v>1.000228650863356</v>
       </c>
       <c r="H9">
-        <v>0.9999921689107177</v>
+        <v>0.9997093715599369</v>
       </c>
       <c r="I9">
-        <v>1.00000354431406</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="J9">
-        <v>0.9999858999788127</v>
+        <v>0.9998966838201495</v>
       </c>
       <c r="K9">
-        <v>1.000003321359308</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="L9">
-        <v>1.000003637702651</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="M9">
-        <v>0.9999947688407318</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="N9">
-        <v>0.9999947688407318</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="O9">
-        <v>0.9999939021973937</v>
+        <v>1.000176647813653</v>
       </c>
       <c r="P9">
-        <v>0.9999976196802574</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="Q9">
-        <v>0.9999976196802574</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="R9">
-        <v>0.9999990451000201</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="S9">
-        <v>0.9999990451000201</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="T9">
-        <v>0.9999997227405636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000007292174317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000004015057136</v>
+        <v>1.007854328317178</v>
       </c>
       <c r="D10">
-        <v>0.999979313964276</v>
+        <v>0.998165856186263</v>
       </c>
       <c r="E10">
-        <v>1.000005814764151</v>
+        <v>1.007854328317178</v>
       </c>
       <c r="F10">
-        <v>1.000004015057136</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="G10">
-        <v>1.000015850594845</v>
+        <v>1.004235990634965</v>
       </c>
       <c r="H10">
-        <v>0.9999882037822824</v>
+        <v>0.99517799083773</v>
       </c>
       <c r="I10">
-        <v>1.000005287516803</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="J10">
-        <v>0.999979313964276</v>
+        <v>0.9980601881620191</v>
       </c>
       <c r="K10">
-        <v>1.000004015057136</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="L10">
-        <v>1.000005814764151</v>
+        <v>0.998165856186263</v>
       </c>
       <c r="M10">
-        <v>0.9999925643642136</v>
+        <v>1.003010092251721</v>
       </c>
       <c r="N10">
-        <v>0.9999925643642136</v>
+        <v>1.003010092251721</v>
       </c>
       <c r="O10">
-        <v>0.9999911108369032</v>
+        <v>1.003418725046135</v>
       </c>
       <c r="P10">
-        <v>0.9999963812618543</v>
+        <v>1.001274532339433</v>
       </c>
       <c r="Q10">
-        <v>0.9999963812618543</v>
+        <v>1.001274532339433</v>
       </c>
       <c r="R10">
-        <v>0.9999982897106746</v>
+        <v>1.000406752383289</v>
       </c>
       <c r="S10">
-        <v>0.9999982897106746</v>
+        <v>1.000406752383289</v>
       </c>
       <c r="T10">
-        <v>0.9999997476132489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000216294442169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000016857197494</v>
+        <v>0.9911946665291269</v>
       </c>
       <c r="D11">
-        <v>0.9999316303848451</v>
+        <v>1.002199619554006</v>
       </c>
       <c r="E11">
-        <v>1.000017220649825</v>
+        <v>0.9911946665291269</v>
       </c>
       <c r="F11">
-        <v>1.000016857197494</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="G11">
-        <v>1.000045995274921</v>
+        <v>0.995158174004148</v>
       </c>
       <c r="H11">
-        <v>0.9999623100279628</v>
+        <v>1.005864743553393</v>
       </c>
       <c r="I11">
-        <v>1.000017111610485</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="J11">
-        <v>0.9999316303848451</v>
+        <v>1.002201014333668</v>
       </c>
       <c r="K11">
-        <v>1.000016857197494</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="L11">
-        <v>1.000017220649825</v>
+        <v>1.002199619554006</v>
       </c>
       <c r="M11">
-        <v>0.9999744255173353</v>
+        <v>0.9966971430415665</v>
       </c>
       <c r="N11">
-        <v>0.9999744255173353</v>
+        <v>0.9966971430415665</v>
       </c>
       <c r="O11">
-        <v>0.9999703870208778</v>
+        <v>0.996184153362427</v>
       </c>
       <c r="P11">
-        <v>0.9999885694107215</v>
+        <v>0.9985329008762166</v>
       </c>
       <c r="Q11">
-        <v>0.9999885694107215</v>
+        <v>0.9985329008762166</v>
       </c>
       <c r="R11">
-        <v>0.9999956413574146</v>
+        <v>0.9994507797935416</v>
       </c>
       <c r="S11">
-        <v>0.9999956413574146</v>
+        <v>0.9994507797935416</v>
       </c>
       <c r="T11">
-        <v>0.9999985208575888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9998037724199765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.99910002820731</v>
+        <v>1.002013365873685</v>
       </c>
       <c r="D12">
-        <v>1.004200403778915</v>
+        <v>0.999535992399996</v>
       </c>
       <c r="E12">
-        <v>0.9988664982305993</v>
+        <v>1.002013365873685</v>
       </c>
       <c r="F12">
-        <v>0.99910002820731</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="G12">
-        <v>0.9969328314123224</v>
+        <v>1.001081860631579</v>
       </c>
       <c r="H12">
-        <v>1.002364265628935</v>
+        <v>0.9987836242000038</v>
       </c>
       <c r="I12">
-        <v>0.9989345848400207</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="J12">
-        <v>1.004200403778915</v>
+        <v>0.9995038823473702</v>
       </c>
       <c r="K12">
-        <v>0.99910002820731</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="L12">
-        <v>0.9988664982305993</v>
+        <v>0.999535992399996</v>
       </c>
       <c r="M12">
-        <v>1.001533451004757</v>
+        <v>1.00077467913684</v>
       </c>
       <c r="N12">
-        <v>1.001533451004757</v>
+        <v>1.00077467913684</v>
       </c>
       <c r="O12">
-        <v>1.001810389212816</v>
+        <v>1.00087707296842</v>
       </c>
       <c r="P12">
-        <v>1.000722310072275</v>
+        <v>1.000325071392982</v>
       </c>
       <c r="Q12">
-        <v>1.000722310072274</v>
+        <v>1.000325071392982</v>
       </c>
       <c r="R12">
-        <v>1.000316739606033</v>
+        <v>1.000100267521052</v>
       </c>
       <c r="S12">
-        <v>1.000316739606033</v>
+        <v>1.000100267521052</v>
       </c>
       <c r="T12">
-        <v>1.000066435349684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000057430226317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996431778386737</v>
+        <v>0.9984843431147523</v>
       </c>
       <c r="D13">
-        <v>1.00117286755805</v>
+        <v>1.000375672682492</v>
       </c>
       <c r="E13">
-        <v>0.9997421207400776</v>
+        <v>0.9984843431147523</v>
       </c>
       <c r="F13">
-        <v>0.9996431778386737</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="G13">
-        <v>0.9993311734613575</v>
+        <v>0.9991684880066485</v>
       </c>
       <c r="H13">
-        <v>1.00062217499964</v>
+        <v>1.001000061700997</v>
       </c>
       <c r="I13">
-        <v>0.9997132734756337</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="J13">
-        <v>1.00117286755805</v>
+        <v>1.000378319262876</v>
       </c>
       <c r="K13">
-        <v>0.9996431778386737</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="L13">
-        <v>0.9997421207400776</v>
+        <v>1.000375672682492</v>
       </c>
       <c r="M13">
-        <v>1.000457494149064</v>
+        <v>0.9994300078986224</v>
       </c>
       <c r="N13">
-        <v>1.000457494149064</v>
+        <v>0.9994300078986224</v>
       </c>
       <c r="O13">
-        <v>1.000512387765923</v>
+        <v>0.9993428346012978</v>
       </c>
       <c r="P13">
-        <v>1.000186055378934</v>
+        <v>0.9997482552657191</v>
       </c>
       <c r="Q13">
-        <v>1.000186055378934</v>
+        <v>0.9997482552657191</v>
       </c>
       <c r="R13">
-        <v>1.000050335993869</v>
+        <v>0.9999073789492674</v>
       </c>
       <c r="S13">
-        <v>1.000050335993869</v>
+        <v>0.9999073789492674</v>
       </c>
       <c r="T13">
-        <v>1.000037464678905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999652724612799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9971536907267378</v>
+        <v>1.013576599999999</v>
       </c>
       <c r="D14">
-        <v>1.010876129236713</v>
+        <v>0.9968345600000013</v>
       </c>
       <c r="E14">
-        <v>0.9973516768175865</v>
+        <v>1.013576599999999</v>
       </c>
       <c r="F14">
-        <v>0.9971536907267378</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="G14">
-        <v>0.9929755077829272</v>
+        <v>1.007318900000001</v>
       </c>
       <c r="H14">
-        <v>1.005936055402987</v>
+        <v>0.9916808199999995</v>
       </c>
       <c r="I14">
-        <v>0.997293954603883</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="J14">
-        <v>1.010876129236713</v>
+        <v>0.9966478500000009</v>
       </c>
       <c r="K14">
-        <v>0.9971536907267378</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="L14">
-        <v>0.9973516768175865</v>
+        <v>0.9968345600000013</v>
       </c>
       <c r="M14">
-        <v>1.00411390302715</v>
+        <v>1.00520558</v>
       </c>
       <c r="N14">
-        <v>1.00411390302715</v>
+        <v>1.00520558</v>
       </c>
       <c r="O14">
-        <v>1.004721287152429</v>
+        <v>1.005910020000001</v>
       </c>
       <c r="P14">
-        <v>1.001793832260346</v>
+        <v>1.002201766666667</v>
       </c>
       <c r="Q14">
-        <v>1.001793832260346</v>
+        <v>1.002201766666667</v>
       </c>
       <c r="R14">
-        <v>1.000633796876944</v>
+        <v>1.00069986</v>
       </c>
       <c r="S14">
-        <v>1.000633796876944</v>
+        <v>1.00069986</v>
       </c>
       <c r="T14">
-        <v>1.000264502428472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000375478333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9993250225405822</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D15">
-        <v>1.002904283654747</v>
+        <v>1.0113912</v>
       </c>
       <c r="E15">
-        <v>0.9992455399269431</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="F15">
-        <v>0.9993250225405822</v>
+        <v>1.012634</v>
       </c>
       <c r="G15">
-        <v>0.997972974214935</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="H15">
-        <v>1.001615752455668</v>
+        <v>1.0301398</v>
       </c>
       <c r="I15">
-        <v>0.9992687179876568</v>
+        <v>1.012634</v>
       </c>
       <c r="J15">
-        <v>1.002904283654747</v>
+        <v>1.0117535</v>
       </c>
       <c r="K15">
-        <v>0.9993250225405822</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>0.9992455399269431</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>1.001074911790845</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>1.001074911790845</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>1.001255192012452</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>1.000491615374091</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>1.000491615374091</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>1.000199967165714</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>1.000199967165714</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>1.000055381796755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999978469078267</v>
+        <v>0.91421955</v>
       </c>
       <c r="D16">
-        <v>1.000002080130893</v>
+        <v>1.02159</v>
       </c>
       <c r="E16">
-        <v>1.000000387191945</v>
+        <v>0.91421955</v>
       </c>
       <c r="F16">
-        <v>0.9999978469078267</v>
+        <v>1.0211844</v>
       </c>
       <c r="G16">
-        <v>1.000001518189854</v>
+        <v>0.95272689</v>
       </c>
       <c r="H16">
-        <v>1.000000553762923</v>
+        <v>1.0576505</v>
       </c>
       <c r="I16">
-        <v>0.9999996448166887</v>
+        <v>1.0211844</v>
       </c>
       <c r="J16">
-        <v>1.000002080130893</v>
+        <v>1.0214717</v>
       </c>
       <c r="K16">
-        <v>0.9999978469078267</v>
+        <v>1.0211844</v>
       </c>
       <c r="L16">
-        <v>1.000000387191945</v>
+        <v>1.02159</v>
       </c>
       <c r="M16">
-        <v>1.000001233661419</v>
+        <v>0.9679047750000001</v>
       </c>
       <c r="N16">
-        <v>1.000001233661419</v>
+        <v>0.9679047750000001</v>
       </c>
       <c r="O16">
-        <v>1.000001007028587</v>
+        <v>0.96284548</v>
       </c>
       <c r="P16">
-        <v>1.000000104743554</v>
+        <v>0.98566465</v>
       </c>
       <c r="Q16">
-        <v>1.000000104743554</v>
+        <v>0.98566465</v>
       </c>
       <c r="R16">
-        <v>0.9999995402846226</v>
+        <v>0.9945445875000001</v>
       </c>
       <c r="S16">
-        <v>0.9999995402846226</v>
+        <v>0.9945445875000001</v>
       </c>
       <c r="T16">
-        <v>1.000000338500022</v>
+        <v>0.9981405066666668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999972696301132</v>
+        <v>0.967171</v>
       </c>
       <c r="D17">
-        <v>1.000017645014676</v>
+        <v>1.0082925</v>
       </c>
       <c r="E17">
-        <v>0.9999946548356774</v>
+        <v>0.967171</v>
       </c>
       <c r="F17">
-        <v>0.9999972696301132</v>
+        <v>1.0080538</v>
       </c>
       <c r="G17">
-        <v>0.9999852499857477</v>
+        <v>0.9818888</v>
       </c>
       <c r="H17">
-        <v>1.000010307512805</v>
+        <v>1.0221589</v>
       </c>
       <c r="I17">
-        <v>0.9999954158568256</v>
+        <v>1.0080538</v>
       </c>
       <c r="J17">
-        <v>1.000017645014676</v>
+        <v>1.0082229</v>
       </c>
       <c r="K17">
-        <v>0.9999972696301132</v>
+        <v>1.0080538</v>
       </c>
       <c r="L17">
-        <v>0.9999946548356774</v>
+        <v>1.0082925</v>
       </c>
       <c r="M17">
-        <v>1.000006149925177</v>
+        <v>0.98773175</v>
       </c>
       <c r="N17">
-        <v>1.000006149925177</v>
+        <v>0.98773175</v>
       </c>
       <c r="O17">
-        <v>1.000007535787719</v>
+        <v>0.9857841000000001</v>
       </c>
       <c r="P17">
-        <v>1.000003189826822</v>
+        <v>0.9945057666666667</v>
       </c>
       <c r="Q17">
-        <v>1.000003189826822</v>
+        <v>0.9945057666666667</v>
       </c>
       <c r="R17">
-        <v>1.000001709777645</v>
+        <v>0.997892775</v>
       </c>
       <c r="S17">
-        <v>1.000001709777645</v>
+        <v>0.997892775</v>
       </c>
       <c r="T17">
-        <v>1.000000090472641</v>
+        <v>0.9992979833333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999804747000395</v>
+        <v>1.004169970136987</v>
       </c>
       <c r="D18">
-        <v>1.000068218552957</v>
+        <v>0.9988809315068496</v>
       </c>
       <c r="E18">
-        <v>0.9999843178703398</v>
+        <v>1.004169970136987</v>
       </c>
       <c r="F18">
-        <v>0.9999804747000395</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="G18">
-        <v>0.9999589141850288</v>
+        <v>1.002343100547945</v>
       </c>
       <c r="H18">
-        <v>1.000036631183552</v>
+        <v>0.9969749736986299</v>
       </c>
       <c r="I18">
-        <v>0.9999831963848484</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="J18">
-        <v>1.000068218552957</v>
+        <v>0.9989434463013699</v>
       </c>
       <c r="K18">
-        <v>0.9999804747000395</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="L18">
-        <v>0.9999843178703398</v>
+        <v>0.9988809315068496</v>
       </c>
       <c r="M18">
-        <v>1.000026268211648</v>
+        <v>1.001525450821918</v>
       </c>
       <c r="N18">
-        <v>1.000026268211648</v>
+        <v>1.001525450821918</v>
       </c>
       <c r="O18">
-        <v>1.000029722535616</v>
+        <v>1.001798000730594</v>
       </c>
       <c r="P18">
-        <v>1.000011003707779</v>
+        <v>1.000715415068494</v>
       </c>
       <c r="Q18">
-        <v>1.000011003707779</v>
+        <v>1.000715415068494</v>
       </c>
       <c r="R18">
-        <v>1.000003371455844</v>
+        <v>1.000310397191781</v>
       </c>
       <c r="S18">
-        <v>1.000003371455844</v>
+        <v>1.000310397191781</v>
       </c>
       <c r="T18">
-        <v>1.000001958812794</v>
+        <v>1.000067960958904</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.999949087718171</v>
+        <v>0.9816601321052634</v>
       </c>
       <c r="D19">
-        <v>1.00016299717952</v>
+        <v>1.004726203684211</v>
       </c>
       <c r="E19">
-        <v>0.9999648962881014</v>
+        <v>0.9816601321052634</v>
       </c>
       <c r="F19">
-        <v>0.999949087718171</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="G19">
-        <v>0.9999094044851334</v>
+        <v>0.9898215452631578</v>
       </c>
       <c r="H19">
-        <v>1.000085986209545</v>
+        <v>1.012678551052631</v>
       </c>
       <c r="I19">
-        <v>0.9999602875034046</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="J19">
-        <v>1.00016299717952</v>
+        <v>1.004610904736842</v>
       </c>
       <c r="K19">
-        <v>0.999949087718171</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="L19">
-        <v>0.9999648962881014</v>
+        <v>1.004726203684211</v>
       </c>
       <c r="M19">
-        <v>1.000063946733811</v>
+        <v>0.993193167894737</v>
       </c>
       <c r="N19">
-        <v>1.000063946733811</v>
+        <v>0.993193167894737</v>
       </c>
       <c r="O19">
-        <v>1.000071293225722</v>
+        <v>0.9920692936842106</v>
       </c>
       <c r="P19">
-        <v>1.000025660395264</v>
+        <v>0.9969056924561404</v>
       </c>
       <c r="Q19">
-        <v>1.000025660395264</v>
+        <v>0.9969056924561404</v>
       </c>
       <c r="R19">
-        <v>1.000006517225991</v>
+        <v>0.998761954736842</v>
       </c>
       <c r="S19">
-        <v>1.000006517225991</v>
+        <v>0.998761954736842</v>
       </c>
       <c r="T19">
-        <v>1.000005443230646</v>
+        <v>0.9996380130701755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9685133478947365</v>
+      </c>
+      <c r="D20">
+        <v>1.007823122105263</v>
+      </c>
+      <c r="E20">
+        <v>0.9685133478947365</v>
+      </c>
+      <c r="F20">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="G20">
+        <v>0.9827138021052632</v>
+      </c>
+      <c r="H20">
+        <v>1.020835765789474</v>
+      </c>
+      <c r="I20">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="J20">
+        <v>1.007862742105263</v>
+      </c>
+      <c r="K20">
+        <v>1.007959042631579</v>
+      </c>
+      <c r="L20">
+        <v>1.007823122105263</v>
+      </c>
+      <c r="M20">
+        <v>0.988168235</v>
+      </c>
+      <c r="N20">
+        <v>0.988168235</v>
+      </c>
+      <c r="O20">
+        <v>0.9863500907017544</v>
+      </c>
+      <c r="P20">
+        <v>0.9947651708771929</v>
+      </c>
+      <c r="Q20">
+        <v>0.9947651708771929</v>
+      </c>
+      <c r="R20">
+        <v>0.9980636388157893</v>
+      </c>
+      <c r="S20">
+        <v>0.9980636388157893</v>
+      </c>
+      <c r="T20">
+        <v>0.9992846371052631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.010876129236714</v>
+      </c>
+      <c r="D21">
+        <v>0.9973516768175865</v>
+      </c>
+      <c r="E21">
+        <v>1.010876129236714</v>
+      </c>
+      <c r="F21">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="G21">
+        <v>1.005936055402987</v>
+      </c>
+      <c r="H21">
+        <v>0.9929755077829272</v>
+      </c>
+      <c r="I21">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="J21">
+        <v>0.997293954603883</v>
+      </c>
+      <c r="K21">
+        <v>0.9971536907267378</v>
+      </c>
+      <c r="L21">
+        <v>0.9973516768175865</v>
+      </c>
+      <c r="M21">
+        <v>1.00411390302715</v>
+      </c>
+      <c r="N21">
+        <v>1.00411390302715</v>
+      </c>
+      <c r="O21">
+        <v>1.004721287152429</v>
+      </c>
+      <c r="P21">
+        <v>1.001793832260346</v>
+      </c>
+      <c r="Q21">
+        <v>1.001793832260346</v>
+      </c>
+      <c r="R21">
+        <v>1.000633796876944</v>
+      </c>
+      <c r="S21">
+        <v>1.000633796876944</v>
+      </c>
+      <c r="T21">
+        <v>1.000264502428472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002904283654747</v>
+      </c>
+      <c r="D22">
+        <v>0.9992455399269431</v>
+      </c>
+      <c r="E22">
+        <v>1.002904283654747</v>
+      </c>
+      <c r="F22">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="G22">
+        <v>1.001615752455668</v>
+      </c>
+      <c r="H22">
+        <v>0.997972974214935</v>
+      </c>
+      <c r="I22">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="J22">
+        <v>0.9992687179876569</v>
+      </c>
+      <c r="K22">
+        <v>0.9993250225405822</v>
+      </c>
+      <c r="L22">
+        <v>0.9992455399269431</v>
+      </c>
+      <c r="M22">
+        <v>1.001074911790845</v>
+      </c>
+      <c r="N22">
+        <v>1.001074911790845</v>
+      </c>
+      <c r="O22">
+        <v>1.001255192012452</v>
+      </c>
+      <c r="P22">
+        <v>1.000491615374091</v>
+      </c>
+      <c r="Q22">
+        <v>1.000491615374091</v>
+      </c>
+      <c r="R22">
+        <v>1.000199967165714</v>
+      </c>
+      <c r="S22">
+        <v>1.000199967165714</v>
+      </c>
+      <c r="T22">
+        <v>1.000055381796755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.004200403778915</v>
+      </c>
+      <c r="D23">
+        <v>0.9988664982305994</v>
+      </c>
+      <c r="E23">
+        <v>1.004200403778915</v>
+      </c>
+      <c r="F23">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="G23">
+        <v>1.002364265628935</v>
+      </c>
+      <c r="H23">
+        <v>0.9969328314123224</v>
+      </c>
+      <c r="I23">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="J23">
+        <v>0.9989345848400207</v>
+      </c>
+      <c r="K23">
+        <v>0.99910002820731</v>
+      </c>
+      <c r="L23">
+        <v>0.9988664982305994</v>
+      </c>
+      <c r="M23">
+        <v>1.001533451004757</v>
+      </c>
+      <c r="N23">
+        <v>1.001533451004757</v>
+      </c>
+      <c r="O23">
+        <v>1.001810389212816</v>
+      </c>
+      <c r="P23">
+        <v>1.000722310072275</v>
+      </c>
+      <c r="Q23">
+        <v>1.000722310072275</v>
+      </c>
+      <c r="R23">
+        <v>1.000316739606034</v>
+      </c>
+      <c r="S23">
+        <v>1.000316739606034</v>
+      </c>
+      <c r="T23">
+        <v>1.000066435349684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.00117286755805</v>
+      </c>
+      <c r="D24">
+        <v>0.9997421207400775</v>
+      </c>
+      <c r="E24">
+        <v>1.00117286755805</v>
+      </c>
+      <c r="F24">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="G24">
+        <v>1.00062217499964</v>
+      </c>
+      <c r="H24">
+        <v>0.9993311734613575</v>
+      </c>
+      <c r="I24">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="J24">
+        <v>0.9997132734756337</v>
+      </c>
+      <c r="K24">
+        <v>0.9996431778386737</v>
+      </c>
+      <c r="L24">
+        <v>0.9997421207400775</v>
+      </c>
+      <c r="M24">
+        <v>1.000457494149064</v>
+      </c>
+      <c r="N24">
+        <v>1.000457494149064</v>
+      </c>
+      <c r="O24">
+        <v>1.000512387765923</v>
+      </c>
+      <c r="P24">
+        <v>1.000186055378934</v>
+      </c>
+      <c r="Q24">
+        <v>1.000186055378934</v>
+      </c>
+      <c r="R24">
+        <v>1.000050335993869</v>
+      </c>
+      <c r="S24">
+        <v>1.000050335993869</v>
+      </c>
+      <c r="T24">
+        <v>1.000037464678905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9734869951991308</v>
+      </c>
+      <c r="D25">
+        <v>1.006513316369435</v>
+      </c>
+      <c r="E25">
+        <v>0.9734869951991308</v>
+      </c>
+      <c r="F25">
+        <v>1.006835130916654</v>
+      </c>
+      <c r="G25">
+        <v>0.9854923276099629</v>
+      </c>
+      <c r="H25">
+        <v>1.017307541049978</v>
+      </c>
+      <c r="I25">
+        <v>1.006835130916654</v>
+      </c>
+      <c r="J25">
+        <v>1.00660713651172</v>
+      </c>
+      <c r="K25">
+        <v>1.006835130916654</v>
+      </c>
+      <c r="L25">
+        <v>1.006513316369435</v>
+      </c>
+      <c r="M25">
+        <v>0.9900001557842828</v>
+      </c>
+      <c r="N25">
+        <v>0.9900001557842828</v>
+      </c>
+      <c r="O25">
+        <v>0.9884975463928428</v>
+      </c>
+      <c r="P25">
+        <v>0.99561181416174</v>
+      </c>
+      <c r="Q25">
+        <v>0.9956118141617399</v>
+      </c>
+      <c r="R25">
+        <v>0.9984176433504686</v>
+      </c>
+      <c r="S25">
+        <v>0.9984176433504686</v>
+      </c>
+      <c r="T25">
+        <v>0.9993737412761466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9930710339730652</v>
+      </c>
+      <c r="D26">
+        <v>1.001780073776057</v>
+      </c>
+      <c r="E26">
+        <v>0.9930710339730652</v>
+      </c>
+      <c r="F26">
+        <v>1.001646156547752</v>
+      </c>
+      <c r="G26">
+        <v>0.9961580732180082</v>
+      </c>
+      <c r="H26">
+        <v>1.004772362914147</v>
+      </c>
+      <c r="I26">
+        <v>1.001646156547752</v>
+      </c>
+      <c r="J26">
+        <v>1.001741024883814</v>
+      </c>
+      <c r="K26">
+        <v>1.001646156547752</v>
+      </c>
+      <c r="L26">
+        <v>1.001780073776057</v>
+      </c>
+      <c r="M26">
+        <v>0.9974255538745611</v>
+      </c>
+      <c r="N26">
+        <v>0.9974255538745611</v>
+      </c>
+      <c r="O26">
+        <v>0.9970030603223767</v>
+      </c>
+      <c r="P26">
+        <v>0.9988324214322916</v>
+      </c>
+      <c r="Q26">
+        <v>0.9988324214322916</v>
+      </c>
+      <c r="R26">
+        <v>0.9995358552111568</v>
+      </c>
+      <c r="S26">
+        <v>0.9995358552111568</v>
+      </c>
+      <c r="T26">
+        <v>0.9998614542188072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000784490986625</v>
+      </c>
+      <c r="D27">
+        <v>0.999798652853525</v>
+      </c>
+      <c r="E27">
+        <v>1.000784490986625</v>
+      </c>
+      <c r="F27">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="G27">
+        <v>1.000434859248155</v>
+      </c>
+      <c r="H27">
+        <v>0.9994603193539439</v>
+      </c>
+      <c r="I27">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="J27">
+        <v>0.9998029232958744</v>
+      </c>
+      <c r="K27">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="L27">
+        <v>0.999798652853525</v>
+      </c>
+      <c r="M27">
+        <v>1.000291571920075</v>
+      </c>
+      <c r="N27">
+        <v>1.000291571920075</v>
+      </c>
+      <c r="O27">
+        <v>1.000339334362768</v>
+      </c>
+      <c r="P27">
+        <v>1.000132137605473</v>
+      </c>
+      <c r="Q27">
+        <v>1.000132137605473</v>
+      </c>
+      <c r="R27">
+        <v>1.000052420448172</v>
+      </c>
+      <c r="S27">
+        <v>1.000052420448172</v>
+      </c>
+      <c r="T27">
+        <v>1.000015752452399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9948678650873</v>
+      </c>
+      <c r="D28">
+        <v>1.001282788731551</v>
+      </c>
+      <c r="E28">
+        <v>0.9948678650873</v>
+      </c>
+      <c r="F28">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="G28">
+        <v>0.9971774876439777</v>
+      </c>
+      <c r="H28">
+        <v>1.003420642048414</v>
+      </c>
+      <c r="I28">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="J28">
+        <v>1.001282990604986</v>
+      </c>
+      <c r="K28">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="L28">
+        <v>1.001282788731551</v>
+      </c>
+      <c r="M28">
+        <v>0.9980753269094252</v>
+      </c>
+      <c r="N28">
+        <v>0.9980753269094252</v>
+      </c>
+      <c r="O28">
+        <v>0.997776047154276</v>
+      </c>
+      <c r="P28">
+        <v>0.9991447114757904</v>
+      </c>
+      <c r="Q28">
+        <v>0.9991447114757904</v>
+      </c>
+      <c r="R28">
+        <v>0.9996794037589729</v>
+      </c>
+      <c r="S28">
+        <v>0.9996794037589729</v>
+      </c>
+      <c r="T28">
+        <v>0.999885875787458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9926579259342938</v>
+      </c>
+      <c r="D29">
+        <v>1.001816281273734</v>
+      </c>
+      <c r="E29">
+        <v>0.9926579259342938</v>
+      </c>
+      <c r="F29">
+        <v>1.001870147845659</v>
+      </c>
+      <c r="G29">
+        <v>0.9959743197811428</v>
+      </c>
+      <c r="H29">
+        <v>1.004833172164433</v>
+      </c>
+      <c r="I29">
+        <v>1.001870147845659</v>
+      </c>
+      <c r="J29">
+        <v>1.001831998163779</v>
+      </c>
+      <c r="K29">
+        <v>1.001870147845659</v>
+      </c>
+      <c r="L29">
+        <v>1.001816281273734</v>
+      </c>
+      <c r="M29">
+        <v>0.997237103604014</v>
+      </c>
+      <c r="N29">
+        <v>0.997237103604014</v>
+      </c>
+      <c r="O29">
+        <v>0.9968161756630569</v>
+      </c>
+      <c r="P29">
+        <v>0.9987814516845622</v>
+      </c>
+      <c r="Q29">
+        <v>0.9987814516845622</v>
+      </c>
+      <c r="R29">
+        <v>0.9995536257248363</v>
+      </c>
+      <c r="S29">
+        <v>0.9995536257248363</v>
+      </c>
+      <c r="T29">
+        <v>0.9998306408605068</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9882288304373896</v>
+        <v>1.002124371512146</v>
       </c>
       <c r="D4">
-        <v>1.002959064252056</v>
+        <v>0.9994931961870147</v>
       </c>
       <c r="E4">
-        <v>0.9882288304373896</v>
+        <v>1.002124371512146</v>
       </c>
       <c r="F4">
-        <v>1.002913499198825</v>
+        <v>0.9994251857797812</v>
       </c>
       <c r="G4">
-        <v>0.9935153092647107</v>
+        <v>1.001152662698426</v>
       </c>
       <c r="H4">
-        <v>1.00789952222265</v>
+        <v>0.9986614793265425</v>
       </c>
       <c r="I4">
-        <v>1.002913499198825</v>
+        <v>0.9994251857797812</v>
       </c>
       <c r="J4">
-        <v>1.002945777070448</v>
+        <v>0.9994733669844121</v>
       </c>
       <c r="K4">
-        <v>1.002913499198825</v>
+        <v>0.9994251857797812</v>
       </c>
       <c r="L4">
-        <v>1.002959064252056</v>
+        <v>0.9994931961870147</v>
       </c>
       <c r="M4">
-        <v>0.995593947344723</v>
+        <v>1.00080878384958</v>
       </c>
       <c r="N4">
-        <v>0.995593947344723</v>
+        <v>1.00080878384958</v>
       </c>
       <c r="O4">
-        <v>0.9949010679847188</v>
+        <v>1.000923410132529</v>
       </c>
       <c r="P4">
-        <v>0.998033797962757</v>
+        <v>1.000347584492981</v>
       </c>
       <c r="Q4">
-        <v>0.998033797962757</v>
+        <v>1.000347584492981</v>
       </c>
       <c r="R4">
-        <v>0.9992537232717741</v>
+        <v>1.000116984814681</v>
       </c>
       <c r="S4">
-        <v>0.9992537232717741</v>
+        <v>1.000116984814681</v>
       </c>
       <c r="T4">
-        <v>0.9997436670743466</v>
+        <v>1.000055043748054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001828263609511</v>
+        <v>0.9652919816680667</v>
       </c>
       <c r="D5">
-        <v>0.9995673678818439</v>
+        <v>1.008616944015137</v>
       </c>
       <c r="E5">
-        <v>1.001828263609511</v>
+        <v>0.9652919816680667</v>
       </c>
       <c r="F5">
-        <v>0.9994989517219027</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="G5">
-        <v>1.000989709121037</v>
+        <v>0.9809495172078365</v>
       </c>
       <c r="H5">
-        <v>0.9988593475288198</v>
+        <v>1.022946479248526</v>
       </c>
       <c r="I5">
-        <v>0.9994989517219027</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="J5">
-        <v>0.9995474204394819</v>
+        <v>1.008665968145049</v>
       </c>
       <c r="K5">
-        <v>0.9994989517219027</v>
+        <v>1.008785121375878</v>
       </c>
       <c r="L5">
-        <v>0.9995673678818439</v>
+        <v>1.008616944015137</v>
       </c>
       <c r="M5">
-        <v>1.000697815745678</v>
+        <v>0.986954462841602</v>
       </c>
       <c r="N5">
-        <v>1.000697815745678</v>
+        <v>0.986954462841602</v>
       </c>
       <c r="O5">
-        <v>1.000795113537464</v>
+        <v>0.9849528142970135</v>
       </c>
       <c r="P5">
-        <v>1.000298194404419</v>
+        <v>0.9942313490196938</v>
       </c>
       <c r="Q5">
-        <v>1.000298194404419</v>
+        <v>0.9942313490196938</v>
       </c>
       <c r="R5">
-        <v>1.00009838373379</v>
+        <v>0.9978697921087398</v>
       </c>
       <c r="S5">
-        <v>1.00009838373379</v>
+        <v>0.9978697921087398</v>
       </c>
       <c r="T5">
-        <v>1.000048510050433</v>
+        <v>0.9992093352767489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007735621555402</v>
+        <v>0.9882288304373896</v>
       </c>
       <c r="D6">
-        <v>0.9981916161553696</v>
+        <v>1.002959064252056</v>
       </c>
       <c r="E6">
-        <v>1.007735621555402</v>
+        <v>0.9882288304373896</v>
       </c>
       <c r="F6">
-        <v>0.997840139672902</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="G6">
-        <v>1.004173239994859</v>
+        <v>0.9935153092647107</v>
       </c>
       <c r="H6">
-        <v>0.9952445958786501</v>
+        <v>1.00789952222265</v>
       </c>
       <c r="I6">
-        <v>0.997840139672902</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="J6">
-        <v>0.998089144912244</v>
+        <v>1.002945777070448</v>
       </c>
       <c r="K6">
-        <v>0.997840139672902</v>
+        <v>1.002913499198825</v>
       </c>
       <c r="L6">
-        <v>0.9981916161553696</v>
+        <v>1.002959064252056</v>
       </c>
       <c r="M6">
-        <v>1.002963618855386</v>
+        <v>0.995593947344723</v>
       </c>
       <c r="N6">
-        <v>1.002963618855386</v>
+        <v>0.995593947344723</v>
       </c>
       <c r="O6">
-        <v>1.003366825901877</v>
+        <v>0.9949010679847188</v>
       </c>
       <c r="P6">
-        <v>1.001255792461224</v>
+        <v>0.998033797962757</v>
       </c>
       <c r="Q6">
-        <v>1.001255792461225</v>
+        <v>0.998033797962757</v>
       </c>
       <c r="R6">
-        <v>1.000401879264144</v>
+        <v>0.9992537232717741</v>
       </c>
       <c r="S6">
-        <v>1.000401879264144</v>
+        <v>0.9992537232717741</v>
       </c>
       <c r="T6">
-        <v>1.000212393028238</v>
+        <v>0.9997436670743466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000090060172642</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="D7">
-        <v>0.9999737889920973</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="E7">
-        <v>1.000090060172642</v>
+        <v>1.001828263609511</v>
       </c>
       <c r="F7">
-        <v>0.9999841370649657</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="G7">
-        <v>1.000051925407993</v>
+        <v>1.000989709121037</v>
       </c>
       <c r="H7">
-        <v>0.9999281346036587</v>
+        <v>0.9988593475288198</v>
       </c>
       <c r="I7">
-        <v>0.9999841370649657</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="J7">
-        <v>0.9999768042574331</v>
+        <v>0.9995474204394819</v>
       </c>
       <c r="K7">
-        <v>0.9999841370649657</v>
+        <v>0.9994989517219027</v>
       </c>
       <c r="L7">
-        <v>0.9999737889920973</v>
+        <v>0.9995673678818439</v>
       </c>
       <c r="M7">
-        <v>1.00003192458237</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="N7">
-        <v>1.00003192458237</v>
+        <v>1.000697815745678</v>
       </c>
       <c r="O7">
-        <v>1.000038591524244</v>
+        <v>1.000795113537464</v>
       </c>
       <c r="P7">
-        <v>1.000015995409902</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="Q7">
-        <v>1.000015995409902</v>
+        <v>1.000298194404419</v>
       </c>
       <c r="R7">
-        <v>1.000008030823668</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="S7">
-        <v>1.000008030823668</v>
+        <v>1.00009838373379</v>
       </c>
       <c r="T7">
-        <v>1.000000808416465</v>
+        <v>1.000048510050433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000017645014676</v>
+        <v>1.007735621555402</v>
       </c>
       <c r="D8">
-        <v>0.9999946548356774</v>
+        <v>0.9981916161553696</v>
       </c>
       <c r="E8">
-        <v>1.000017645014676</v>
+        <v>1.007735621555402</v>
       </c>
       <c r="F8">
-        <v>0.9999972696301132</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="G8">
-        <v>1.000010307512805</v>
+        <v>1.004173239994859</v>
       </c>
       <c r="H8">
-        <v>0.9999852499857477</v>
+        <v>0.9952445958786501</v>
       </c>
       <c r="I8">
-        <v>0.9999972696301132</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="J8">
-        <v>0.9999954158568256</v>
+        <v>0.998089144912244</v>
       </c>
       <c r="K8">
-        <v>0.9999972696301132</v>
+        <v>0.997840139672902</v>
       </c>
       <c r="L8">
-        <v>0.9999946548356774</v>
+        <v>0.9981916161553696</v>
       </c>
       <c r="M8">
-        <v>1.000006149925177</v>
+        <v>1.002963618855386</v>
       </c>
       <c r="N8">
-        <v>1.000006149925177</v>
+        <v>1.002963618855386</v>
       </c>
       <c r="O8">
-        <v>1.000007535787719</v>
+        <v>1.003366825901877</v>
       </c>
       <c r="P8">
-        <v>1.000003189826822</v>
+        <v>1.001255792461224</v>
       </c>
       <c r="Q8">
-        <v>1.000003189826822</v>
+        <v>1.001255792461225</v>
       </c>
       <c r="R8">
-        <v>1.000001709777645</v>
+        <v>1.000401879264144</v>
       </c>
       <c r="S8">
-        <v>1.000001709777645</v>
+        <v>1.000401879264144</v>
       </c>
       <c r="T8">
-        <v>1.000000090472641</v>
+        <v>1.000212393028238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000409161393356</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="D9">
-        <v>0.999892131184248</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="E9">
-        <v>1.000409161393356</v>
+        <v>1.000090060172642</v>
       </c>
       <c r="F9">
-        <v>0.9999077542248577</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="G9">
-        <v>1.000228650863356</v>
+        <v>1.000051925407993</v>
       </c>
       <c r="H9">
-        <v>0.9997093715599369</v>
+        <v>0.9999281346036587</v>
       </c>
       <c r="I9">
-        <v>0.9999077542248577</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="J9">
-        <v>0.9998966838201495</v>
+        <v>0.9999768042574331</v>
       </c>
       <c r="K9">
-        <v>0.9999077542248577</v>
+        <v>0.9999841370649657</v>
       </c>
       <c r="L9">
-        <v>0.999892131184248</v>
+        <v>0.9999737889920973</v>
       </c>
       <c r="M9">
-        <v>1.000150646288802</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="N9">
-        <v>1.000150646288802</v>
+        <v>1.00003192458237</v>
       </c>
       <c r="O9">
-        <v>1.000176647813653</v>
+        <v>1.000038591524244</v>
       </c>
       <c r="P9">
-        <v>1.000069682267487</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="Q9">
-        <v>1.000069682267487</v>
+        <v>1.000015995409902</v>
       </c>
       <c r="R9">
-        <v>1.00002920025683</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="S9">
-        <v>1.00002920025683</v>
+        <v>1.000008030823668</v>
       </c>
       <c r="T9">
-        <v>1.000007292174317</v>
+        <v>1.000000808416465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007854328317178</v>
+        <v>1.000017645014676</v>
       </c>
       <c r="D10">
-        <v>0.998165856186263</v>
+        <v>0.9999946548356774</v>
       </c>
       <c r="E10">
-        <v>1.007854328317178</v>
+        <v>1.000017645014676</v>
       </c>
       <c r="F10">
-        <v>0.9978034125148573</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="G10">
-        <v>1.004235990634965</v>
+        <v>1.000010307512805</v>
       </c>
       <c r="H10">
-        <v>0.99517799083773</v>
+        <v>0.9999852499857477</v>
       </c>
       <c r="I10">
-        <v>0.9978034125148573</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="J10">
-        <v>0.9980601881620191</v>
+        <v>0.9999954158568256</v>
       </c>
       <c r="K10">
-        <v>0.9978034125148573</v>
+        <v>0.9999972696301132</v>
       </c>
       <c r="L10">
-        <v>0.998165856186263</v>
+        <v>0.9999946548356774</v>
       </c>
       <c r="M10">
-        <v>1.003010092251721</v>
+        <v>1.000006149925177</v>
       </c>
       <c r="N10">
-        <v>1.003010092251721</v>
+        <v>1.000006149925177</v>
       </c>
       <c r="O10">
-        <v>1.003418725046135</v>
+        <v>1.000007535787719</v>
       </c>
       <c r="P10">
-        <v>1.001274532339433</v>
+        <v>1.000003189826822</v>
       </c>
       <c r="Q10">
-        <v>1.001274532339433</v>
+        <v>1.000003189826822</v>
       </c>
       <c r="R10">
-        <v>1.000406752383289</v>
+        <v>1.000001709777645</v>
       </c>
       <c r="S10">
-        <v>1.000406752383289</v>
+        <v>1.000001709777645</v>
       </c>
       <c r="T10">
-        <v>1.000216294442169</v>
+        <v>1.000000090472641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9911946665291269</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="D11">
-        <v>1.002199619554006</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="E11">
-        <v>0.9911946665291269</v>
+        <v>1.000409161393356</v>
       </c>
       <c r="F11">
-        <v>1.002204416545517</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="G11">
-        <v>0.995158174004148</v>
+        <v>1.000228650863356</v>
       </c>
       <c r="H11">
-        <v>1.005864743553393</v>
+        <v>0.9997093715599369</v>
       </c>
       <c r="I11">
-        <v>1.002204416545517</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="J11">
-        <v>1.002201014333668</v>
+        <v>0.9998966838201495</v>
       </c>
       <c r="K11">
-        <v>1.002204416545517</v>
+        <v>0.9999077542248577</v>
       </c>
       <c r="L11">
-        <v>1.002199619554006</v>
+        <v>0.999892131184248</v>
       </c>
       <c r="M11">
-        <v>0.9966971430415665</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="N11">
-        <v>0.9966971430415665</v>
+        <v>1.000150646288802</v>
       </c>
       <c r="O11">
-        <v>0.996184153362427</v>
+        <v>1.000176647813653</v>
       </c>
       <c r="P11">
-        <v>0.9985329008762166</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="Q11">
-        <v>0.9985329008762166</v>
+        <v>1.000069682267487</v>
       </c>
       <c r="R11">
-        <v>0.9994507797935416</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="S11">
-        <v>0.9994507797935416</v>
+        <v>1.00002920025683</v>
       </c>
       <c r="T11">
-        <v>0.9998037724199765</v>
+        <v>1.000007292174317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002013365873685</v>
+        <v>1.007854328317178</v>
       </c>
       <c r="D12">
-        <v>0.999535992399996</v>
+        <v>0.998165856186263</v>
       </c>
       <c r="E12">
-        <v>1.002013365873685</v>
+        <v>1.007854328317178</v>
       </c>
       <c r="F12">
-        <v>0.9994258559052644</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="G12">
-        <v>1.001081860631579</v>
+        <v>1.004235990634965</v>
       </c>
       <c r="H12">
-        <v>0.9987836242000038</v>
+        <v>0.99517799083773</v>
       </c>
       <c r="I12">
-        <v>0.9994258559052644</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="J12">
-        <v>0.9995038823473702</v>
+        <v>0.9980601881620191</v>
       </c>
       <c r="K12">
-        <v>0.9994258559052644</v>
+        <v>0.9978034125148573</v>
       </c>
       <c r="L12">
-        <v>0.999535992399996</v>
+        <v>0.998165856186263</v>
       </c>
       <c r="M12">
-        <v>1.00077467913684</v>
+        <v>1.003010092251721</v>
       </c>
       <c r="N12">
-        <v>1.00077467913684</v>
+        <v>1.003010092251721</v>
       </c>
       <c r="O12">
-        <v>1.00087707296842</v>
+        <v>1.003418725046135</v>
       </c>
       <c r="P12">
-        <v>1.000325071392982</v>
+        <v>1.001274532339433</v>
       </c>
       <c r="Q12">
-        <v>1.000325071392982</v>
+        <v>1.001274532339433</v>
       </c>
       <c r="R12">
-        <v>1.000100267521052</v>
+        <v>1.000406752383289</v>
       </c>
       <c r="S12">
-        <v>1.000100267521052</v>
+        <v>1.000406752383289</v>
       </c>
       <c r="T12">
-        <v>1.000057430226317</v>
+        <v>1.000216294442169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9984843431147523</v>
+        <v>0.9911946665291269</v>
       </c>
       <c r="D13">
-        <v>1.000375672682492</v>
+        <v>1.002199619554006</v>
       </c>
       <c r="E13">
-        <v>0.9984843431147523</v>
+        <v>0.9911946665291269</v>
       </c>
       <c r="F13">
-        <v>1.000384749999912</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="G13">
-        <v>0.9991684880066485</v>
+        <v>0.995158174004148</v>
       </c>
       <c r="H13">
-        <v>1.001000061700997</v>
+        <v>1.005864743553393</v>
       </c>
       <c r="I13">
-        <v>1.000384749999912</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="J13">
-        <v>1.000378319262876</v>
+        <v>1.002201014333668</v>
       </c>
       <c r="K13">
-        <v>1.000384749999912</v>
+        <v>1.002204416545517</v>
       </c>
       <c r="L13">
-        <v>1.000375672682492</v>
+        <v>1.002199619554006</v>
       </c>
       <c r="M13">
-        <v>0.9994300078986224</v>
+        <v>0.9966971430415665</v>
       </c>
       <c r="N13">
-        <v>0.9994300078986224</v>
+        <v>0.9966971430415665</v>
       </c>
       <c r="O13">
-        <v>0.9993428346012978</v>
+        <v>0.996184153362427</v>
       </c>
       <c r="P13">
-        <v>0.9997482552657191</v>
+        <v>0.9985329008762166</v>
       </c>
       <c r="Q13">
-        <v>0.9997482552657191</v>
+        <v>0.9985329008762166</v>
       </c>
       <c r="R13">
-        <v>0.9999073789492674</v>
+        <v>0.9994507797935416</v>
       </c>
       <c r="S13">
-        <v>0.9999073789492674</v>
+        <v>0.9994507797935416</v>
       </c>
       <c r="T13">
-        <v>0.9999652724612799</v>
+        <v>0.9998037724199765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.013576599999999</v>
+        <v>1.002013365873685</v>
       </c>
       <c r="D14">
-        <v>0.9968345600000013</v>
+        <v>0.999535992399996</v>
       </c>
       <c r="E14">
-        <v>1.013576599999999</v>
+        <v>1.002013365873685</v>
       </c>
       <c r="F14">
-        <v>0.9961941399999997</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="G14">
-        <v>1.007318900000001</v>
+        <v>1.001081860631579</v>
       </c>
       <c r="H14">
-        <v>0.9916808199999995</v>
+        <v>0.9987836242000038</v>
       </c>
       <c r="I14">
-        <v>0.9961941399999997</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="J14">
-        <v>0.9966478500000009</v>
+        <v>0.9995038823473702</v>
       </c>
       <c r="K14">
-        <v>0.9961941399999997</v>
+        <v>0.9994258559052644</v>
       </c>
       <c r="L14">
-        <v>0.9968345600000013</v>
+        <v>0.999535992399996</v>
       </c>
       <c r="M14">
-        <v>1.00520558</v>
+        <v>1.00077467913684</v>
       </c>
       <c r="N14">
-        <v>1.00520558</v>
+        <v>1.00077467913684</v>
       </c>
       <c r="O14">
-        <v>1.005910020000001</v>
+        <v>1.00087707296842</v>
       </c>
       <c r="P14">
-        <v>1.002201766666667</v>
+        <v>1.000325071392982</v>
       </c>
       <c r="Q14">
-        <v>1.002201766666667</v>
+        <v>1.000325071392982</v>
       </c>
       <c r="R14">
-        <v>1.00069986</v>
+        <v>1.000100267521052</v>
       </c>
       <c r="S14">
-        <v>1.00069986</v>
+        <v>1.000100267521052</v>
       </c>
       <c r="T14">
-        <v>1.000375478333334</v>
+        <v>1.000057430226317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9526597999999999</v>
+        <v>0.9984843431147523</v>
       </c>
       <c r="D15">
-        <v>1.0113912</v>
+        <v>1.000375672682492</v>
       </c>
       <c r="E15">
-        <v>0.9526597999999999</v>
+        <v>0.9984843431147523</v>
       </c>
       <c r="F15">
-        <v>1.012634</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="G15">
-        <v>0.9742505199999999</v>
+        <v>0.9991684880066485</v>
       </c>
       <c r="H15">
-        <v>1.0301398</v>
+        <v>1.001000061700997</v>
       </c>
       <c r="I15">
-        <v>1.012634</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="J15">
-        <v>1.0117535</v>
+        <v>1.000378319262876</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>1.000384749999912</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>1.000375672682492</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>0.9994300078986224</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>0.9994300078986224</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>0.9993428346012978</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>0.9997482552657191</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>0.9997482552657191</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>0.9999073789492674</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>0.9999073789492674</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>0.9999652724612799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.91421955</v>
+        <v>1.013576599999999</v>
       </c>
       <c r="D16">
-        <v>1.02159</v>
+        <v>0.9968345600000013</v>
       </c>
       <c r="E16">
-        <v>0.91421955</v>
+        <v>1.013576599999999</v>
       </c>
       <c r="F16">
-        <v>1.0211844</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="G16">
-        <v>0.95272689</v>
+        <v>1.007318900000001</v>
       </c>
       <c r="H16">
-        <v>1.0576505</v>
+        <v>0.9916808199999995</v>
       </c>
       <c r="I16">
-        <v>1.0211844</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="J16">
-        <v>1.0214717</v>
+        <v>0.9966478500000009</v>
       </c>
       <c r="K16">
-        <v>1.0211844</v>
+        <v>0.9961941399999997</v>
       </c>
       <c r="L16">
-        <v>1.02159</v>
+        <v>0.9968345600000013</v>
       </c>
       <c r="M16">
-        <v>0.9679047750000001</v>
+        <v>1.00520558</v>
       </c>
       <c r="N16">
-        <v>0.9679047750000001</v>
+        <v>1.00520558</v>
       </c>
       <c r="O16">
-        <v>0.96284548</v>
+        <v>1.005910020000001</v>
       </c>
       <c r="P16">
-        <v>0.98566465</v>
+        <v>1.002201766666667</v>
       </c>
       <c r="Q16">
-        <v>0.98566465</v>
+        <v>1.002201766666667</v>
       </c>
       <c r="R16">
-        <v>0.9945445875000001</v>
+        <v>1.00069986</v>
       </c>
       <c r="S16">
-        <v>0.9945445875000001</v>
+        <v>1.00069986</v>
       </c>
       <c r="T16">
-        <v>0.9981405066666668</v>
+        <v>1.000375478333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.967171</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D17">
-        <v>1.0082925</v>
+        <v>1.0113912</v>
       </c>
       <c r="E17">
-        <v>0.967171</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="F17">
-        <v>1.0080538</v>
+        <v>1.012634</v>
       </c>
       <c r="G17">
-        <v>0.9818888</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="H17">
-        <v>1.0221589</v>
+        <v>1.0301398</v>
       </c>
       <c r="I17">
-        <v>1.0080538</v>
+        <v>1.012634</v>
       </c>
       <c r="J17">
-        <v>1.0082229</v>
+        <v>1.0117535</v>
       </c>
       <c r="K17">
-        <v>1.0080538</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0082925</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.98773175</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.98773175</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.9857841000000001</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.9945057666666667</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.9945057666666667</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.997892775</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.997892775</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.9992979833333333</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004169970136987</v>
+        <v>0.91421955</v>
       </c>
       <c r="D18">
-        <v>0.9988809315068496</v>
+        <v>1.02159</v>
       </c>
       <c r="E18">
-        <v>1.004169970136987</v>
+        <v>0.91421955</v>
       </c>
       <c r="F18">
-        <v>0.9990953435616444</v>
+        <v>1.0211844</v>
       </c>
       <c r="G18">
-        <v>1.002343100547945</v>
+        <v>0.95272689</v>
       </c>
       <c r="H18">
-        <v>0.9969749736986299</v>
+        <v>1.0576505</v>
       </c>
       <c r="I18">
-        <v>0.9990953435616444</v>
+        <v>1.0211844</v>
       </c>
       <c r="J18">
-        <v>0.9989434463013699</v>
+        <v>1.0214717</v>
       </c>
       <c r="K18">
-        <v>0.9990953435616444</v>
+        <v>1.0211844</v>
       </c>
       <c r="L18">
-        <v>0.9988809315068496</v>
+        <v>1.02159</v>
       </c>
       <c r="M18">
-        <v>1.001525450821918</v>
+        <v>0.9679047750000001</v>
       </c>
       <c r="N18">
-        <v>1.001525450821918</v>
+        <v>0.9679047750000001</v>
       </c>
       <c r="O18">
-        <v>1.001798000730594</v>
+        <v>0.96284548</v>
       </c>
       <c r="P18">
-        <v>1.000715415068494</v>
+        <v>0.98566465</v>
       </c>
       <c r="Q18">
-        <v>1.000715415068494</v>
+        <v>0.98566465</v>
       </c>
       <c r="R18">
-        <v>1.000310397191781</v>
+        <v>0.9945445875000001</v>
       </c>
       <c r="S18">
-        <v>1.000310397191781</v>
+        <v>0.9945445875000001</v>
       </c>
       <c r="T18">
-        <v>1.000067960958904</v>
+        <v>0.9981405066666668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9816601321052634</v>
+        <v>0.967171</v>
       </c>
       <c r="D19">
-        <v>1.004726203684211</v>
+        <v>1.0082925</v>
       </c>
       <c r="E19">
-        <v>0.9816601321052634</v>
+        <v>0.967171</v>
       </c>
       <c r="F19">
-        <v>1.004330741578947</v>
+        <v>1.0080538</v>
       </c>
       <c r="G19">
-        <v>0.9898215452631578</v>
+        <v>0.9818888</v>
       </c>
       <c r="H19">
-        <v>1.012678551052631</v>
+        <v>1.0221589</v>
       </c>
       <c r="I19">
-        <v>1.004330741578947</v>
+        <v>1.0080538</v>
       </c>
       <c r="J19">
-        <v>1.004610904736842</v>
+        <v>1.0082229</v>
       </c>
       <c r="K19">
-        <v>1.004330741578947</v>
+        <v>1.0080538</v>
       </c>
       <c r="L19">
-        <v>1.004726203684211</v>
+        <v>1.0082925</v>
       </c>
       <c r="M19">
-        <v>0.993193167894737</v>
+        <v>0.98773175</v>
       </c>
       <c r="N19">
-        <v>0.993193167894737</v>
+        <v>0.98773175</v>
       </c>
       <c r="O19">
-        <v>0.9920692936842106</v>
+        <v>0.9857841000000001</v>
       </c>
       <c r="P19">
-        <v>0.9969056924561404</v>
+        <v>0.9945057666666667</v>
       </c>
       <c r="Q19">
-        <v>0.9969056924561404</v>
+        <v>0.9945057666666667</v>
       </c>
       <c r="R19">
-        <v>0.998761954736842</v>
+        <v>0.997892775</v>
       </c>
       <c r="S19">
-        <v>0.998761954736842</v>
+        <v>0.997892775</v>
       </c>
       <c r="T19">
-        <v>0.9996380130701755</v>
+        <v>0.9992979833333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9685133478947365</v>
+        <v>1.004169970136987</v>
       </c>
       <c r="D20">
-        <v>1.007823122105263</v>
+        <v>0.9988809315068496</v>
       </c>
       <c r="E20">
-        <v>0.9685133478947365</v>
+        <v>1.004169970136987</v>
       </c>
       <c r="F20">
-        <v>1.007959042631579</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="G20">
-        <v>0.9827138021052632</v>
+        <v>1.002343100547945</v>
       </c>
       <c r="H20">
-        <v>1.020835765789474</v>
+        <v>0.9969749736986299</v>
       </c>
       <c r="I20">
-        <v>1.007959042631579</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="J20">
-        <v>1.007862742105263</v>
+        <v>0.9989434463013699</v>
       </c>
       <c r="K20">
-        <v>1.007959042631579</v>
+        <v>0.9990953435616444</v>
       </c>
       <c r="L20">
-        <v>1.007823122105263</v>
+        <v>0.9988809315068496</v>
       </c>
       <c r="M20">
-        <v>0.988168235</v>
+        <v>1.001525450821918</v>
       </c>
       <c r="N20">
-        <v>0.988168235</v>
+        <v>1.001525450821918</v>
       </c>
       <c r="O20">
-        <v>0.9863500907017544</v>
+        <v>1.001798000730594</v>
       </c>
       <c r="P20">
-        <v>0.9947651708771929</v>
+        <v>1.000715415068494</v>
       </c>
       <c r="Q20">
-        <v>0.9947651708771929</v>
+        <v>1.000715415068494</v>
       </c>
       <c r="R20">
-        <v>0.9980636388157893</v>
+        <v>1.000310397191781</v>
       </c>
       <c r="S20">
-        <v>0.9980636388157893</v>
+        <v>1.000310397191781</v>
       </c>
       <c r="T20">
-        <v>0.9992846371052631</v>
+        <v>1.000067960958904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.010876129236714</v>
+        <v>0.9816601321052634</v>
       </c>
       <c r="D21">
-        <v>0.9973516768175865</v>
+        <v>1.004726203684211</v>
       </c>
       <c r="E21">
-        <v>1.010876129236714</v>
+        <v>0.9816601321052634</v>
       </c>
       <c r="F21">
-        <v>0.9971536907267378</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="G21">
-        <v>1.005936055402987</v>
+        <v>0.9898215452631578</v>
       </c>
       <c r="H21">
-        <v>0.9929755077829272</v>
+        <v>1.012678551052631</v>
       </c>
       <c r="I21">
-        <v>0.9971536907267378</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="J21">
-        <v>0.997293954603883</v>
+        <v>1.004610904736842</v>
       </c>
       <c r="K21">
-        <v>0.9971536907267378</v>
+        <v>1.004330741578947</v>
       </c>
       <c r="L21">
-        <v>0.9973516768175865</v>
+        <v>1.004726203684211</v>
       </c>
       <c r="M21">
-        <v>1.00411390302715</v>
+        <v>0.993193167894737</v>
       </c>
       <c r="N21">
-        <v>1.00411390302715</v>
+        <v>0.993193167894737</v>
       </c>
       <c r="O21">
-        <v>1.004721287152429</v>
+        <v>0.9920692936842106</v>
       </c>
       <c r="P21">
-        <v>1.001793832260346</v>
+        <v>0.9969056924561404</v>
       </c>
       <c r="Q21">
-        <v>1.001793832260346</v>
+        <v>0.9969056924561404</v>
       </c>
       <c r="R21">
-        <v>1.000633796876944</v>
+        <v>0.998761954736842</v>
       </c>
       <c r="S21">
-        <v>1.000633796876944</v>
+        <v>0.998761954736842</v>
       </c>
       <c r="T21">
-        <v>1.000264502428472</v>
+        <v>0.9996380130701755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002904283654747</v>
+        <v>0.9685133478947365</v>
       </c>
       <c r="D22">
-        <v>0.9992455399269431</v>
+        <v>1.007823122105263</v>
       </c>
       <c r="E22">
-        <v>1.002904283654747</v>
+        <v>0.9685133478947365</v>
       </c>
       <c r="F22">
-        <v>0.9993250225405822</v>
+        <v>1.007959042631579</v>
       </c>
       <c r="G22">
-        <v>1.001615752455668</v>
+        <v>0.9827138021052632</v>
       </c>
       <c r="H22">
-        <v>0.997972974214935</v>
+        <v>1.020835765789474</v>
       </c>
       <c r="I22">
-        <v>0.9993250225405822</v>
+        <v>1.007959042631579</v>
       </c>
       <c r="J22">
-        <v>0.9992687179876569</v>
+        <v>1.007862742105263</v>
       </c>
       <c r="K22">
-        <v>0.9993250225405822</v>
+        <v>1.007959042631579</v>
       </c>
       <c r="L22">
-        <v>0.9992455399269431</v>
+        <v>1.007823122105263</v>
       </c>
       <c r="M22">
-        <v>1.001074911790845</v>
+        <v>0.988168235</v>
       </c>
       <c r="N22">
-        <v>1.001074911790845</v>
+        <v>0.988168235</v>
       </c>
       <c r="O22">
-        <v>1.001255192012452</v>
+        <v>0.9863500907017544</v>
       </c>
       <c r="P22">
-        <v>1.000491615374091</v>
+        <v>0.9947651708771929</v>
       </c>
       <c r="Q22">
-        <v>1.000491615374091</v>
+        <v>0.9947651708771929</v>
       </c>
       <c r="R22">
-        <v>1.000199967165714</v>
+        <v>0.9980636388157893</v>
       </c>
       <c r="S22">
-        <v>1.000199967165714</v>
+        <v>0.9980636388157893</v>
       </c>
       <c r="T22">
-        <v>1.000055381796755</v>
+        <v>0.9992846371052631</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.004200403778915</v>
+        <v>1.010876129236714</v>
       </c>
       <c r="D23">
-        <v>0.9988664982305994</v>
+        <v>0.9973516768175865</v>
       </c>
       <c r="E23">
-        <v>1.004200403778915</v>
+        <v>1.010876129236714</v>
       </c>
       <c r="F23">
-        <v>0.99910002820731</v>
+        <v>0.9971536907267378</v>
       </c>
       <c r="G23">
-        <v>1.002364265628935</v>
+        <v>1.005936055402987</v>
       </c>
       <c r="H23">
-        <v>0.9969328314123224</v>
+        <v>0.9929755077829272</v>
       </c>
       <c r="I23">
-        <v>0.99910002820731</v>
+        <v>0.9971536907267378</v>
       </c>
       <c r="J23">
-        <v>0.9989345848400207</v>
+        <v>0.997293954603883</v>
       </c>
       <c r="K23">
-        <v>0.99910002820731</v>
+        <v>0.9971536907267378</v>
       </c>
       <c r="L23">
-        <v>0.9988664982305994</v>
+        <v>0.9973516768175865</v>
       </c>
       <c r="M23">
-        <v>1.001533451004757</v>
+        <v>1.00411390302715</v>
       </c>
       <c r="N23">
-        <v>1.001533451004757</v>
+        <v>1.00411390302715</v>
       </c>
       <c r="O23">
-        <v>1.001810389212816</v>
+        <v>1.004721287152429</v>
       </c>
       <c r="P23">
-        <v>1.000722310072275</v>
+        <v>1.001793832260346</v>
       </c>
       <c r="Q23">
-        <v>1.000722310072275</v>
+        <v>1.001793832260346</v>
       </c>
       <c r="R23">
-        <v>1.000316739606034</v>
+        <v>1.000633796876944</v>
       </c>
       <c r="S23">
-        <v>1.000316739606034</v>
+        <v>1.000633796876944</v>
       </c>
       <c r="T23">
-        <v>1.000066435349684</v>
+        <v>1.000264502428472</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.00117286755805</v>
+        <v>1.002904283654747</v>
       </c>
       <c r="D24">
-        <v>0.9997421207400775</v>
+        <v>0.9992455399269431</v>
       </c>
       <c r="E24">
-        <v>1.00117286755805</v>
+        <v>1.002904283654747</v>
       </c>
       <c r="F24">
-        <v>0.9996431778386737</v>
+        <v>0.9993250225405822</v>
       </c>
       <c r="G24">
-        <v>1.00062217499964</v>
+        <v>1.001615752455668</v>
       </c>
       <c r="H24">
-        <v>0.9993311734613575</v>
+        <v>0.997972974214935</v>
       </c>
       <c r="I24">
-        <v>0.9996431778386737</v>
+        <v>0.9993250225405822</v>
       </c>
       <c r="J24">
-        <v>0.9997132734756337</v>
+        <v>0.9992687179876569</v>
       </c>
       <c r="K24">
-        <v>0.9996431778386737</v>
+        <v>0.9993250225405822</v>
       </c>
       <c r="L24">
-        <v>0.9997421207400775</v>
+        <v>0.9992455399269431</v>
       </c>
       <c r="M24">
-        <v>1.000457494149064</v>
+        <v>1.001074911790845</v>
       </c>
       <c r="N24">
-        <v>1.000457494149064</v>
+        <v>1.001074911790845</v>
       </c>
       <c r="O24">
-        <v>1.000512387765923</v>
+        <v>1.001255192012452</v>
       </c>
       <c r="P24">
-        <v>1.000186055378934</v>
+        <v>1.000491615374091</v>
       </c>
       <c r="Q24">
-        <v>1.000186055378934</v>
+        <v>1.000491615374091</v>
       </c>
       <c r="R24">
-        <v>1.000050335993869</v>
+        <v>1.000199967165714</v>
       </c>
       <c r="S24">
-        <v>1.000050335993869</v>
+        <v>1.000199967165714</v>
       </c>
       <c r="T24">
-        <v>1.000037464678905</v>
+        <v>1.000055381796755</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9734869951991308</v>
+        <v>1.004200403778915</v>
       </c>
       <c r="D25">
-        <v>1.006513316369435</v>
+        <v>0.9988664982305994</v>
       </c>
       <c r="E25">
-        <v>0.9734869951991308</v>
+        <v>1.004200403778915</v>
       </c>
       <c r="F25">
-        <v>1.006835130916654</v>
+        <v>0.99910002820731</v>
       </c>
       <c r="G25">
-        <v>0.9854923276099629</v>
+        <v>1.002364265628935</v>
       </c>
       <c r="H25">
-        <v>1.017307541049978</v>
+        <v>0.9969328314123224</v>
       </c>
       <c r="I25">
-        <v>1.006835130916654</v>
+        <v>0.99910002820731</v>
       </c>
       <c r="J25">
-        <v>1.00660713651172</v>
+        <v>0.9989345848400207</v>
       </c>
       <c r="K25">
-        <v>1.006835130916654</v>
+        <v>0.99910002820731</v>
       </c>
       <c r="L25">
-        <v>1.006513316369435</v>
+        <v>0.9988664982305994</v>
       </c>
       <c r="M25">
-        <v>0.9900001557842828</v>
+        <v>1.001533451004757</v>
       </c>
       <c r="N25">
-        <v>0.9900001557842828</v>
+        <v>1.001533451004757</v>
       </c>
       <c r="O25">
-        <v>0.9884975463928428</v>
+        <v>1.001810389212816</v>
       </c>
       <c r="P25">
-        <v>0.99561181416174</v>
+        <v>1.000722310072275</v>
       </c>
       <c r="Q25">
-        <v>0.9956118141617399</v>
+        <v>1.000722310072275</v>
       </c>
       <c r="R25">
-        <v>0.9984176433504686</v>
+        <v>1.000316739606034</v>
       </c>
       <c r="S25">
-        <v>0.9984176433504686</v>
+        <v>1.000316739606034</v>
       </c>
       <c r="T25">
-        <v>0.9993737412761466</v>
+        <v>1.000066435349684</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9930710339730652</v>
+        <v>1.00117286755805</v>
       </c>
       <c r="D26">
-        <v>1.001780073776057</v>
+        <v>0.9997421207400775</v>
       </c>
       <c r="E26">
-        <v>0.9930710339730652</v>
+        <v>1.00117286755805</v>
       </c>
       <c r="F26">
-        <v>1.001646156547752</v>
+        <v>0.9996431778386737</v>
       </c>
       <c r="G26">
-        <v>0.9961580732180082</v>
+        <v>1.00062217499964</v>
       </c>
       <c r="H26">
-        <v>1.004772362914147</v>
+        <v>0.9993311734613575</v>
       </c>
       <c r="I26">
-        <v>1.001646156547752</v>
+        <v>0.9996431778386737</v>
       </c>
       <c r="J26">
-        <v>1.001741024883814</v>
+        <v>0.9997132734756337</v>
       </c>
       <c r="K26">
-        <v>1.001646156547752</v>
+        <v>0.9996431778386737</v>
       </c>
       <c r="L26">
-        <v>1.001780073776057</v>
+        <v>0.9997421207400775</v>
       </c>
       <c r="M26">
-        <v>0.9974255538745611</v>
+        <v>1.000457494149064</v>
       </c>
       <c r="N26">
-        <v>0.9974255538745611</v>
+        <v>1.000457494149064</v>
       </c>
       <c r="O26">
-        <v>0.9970030603223767</v>
+        <v>1.000512387765923</v>
       </c>
       <c r="P26">
-        <v>0.9988324214322916</v>
+        <v>1.000186055378934</v>
       </c>
       <c r="Q26">
-        <v>0.9988324214322916</v>
+        <v>1.000186055378934</v>
       </c>
       <c r="R26">
-        <v>0.9995358552111568</v>
+        <v>1.000050335993869</v>
       </c>
       <c r="S26">
-        <v>0.9995358552111568</v>
+        <v>1.000050335993869</v>
       </c>
       <c r="T26">
-        <v>0.9998614542188072</v>
+        <v>1.000037464678905</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000784490986625</v>
+        <v>0.9734869951991308</v>
       </c>
       <c r="D27">
-        <v>0.999798652853525</v>
+        <v>1.006513316369435</v>
       </c>
       <c r="E27">
-        <v>1.000784490986625</v>
+        <v>0.9734869951991308</v>
       </c>
       <c r="F27">
-        <v>0.9998132689762687</v>
+        <v>1.006835130916654</v>
       </c>
       <c r="G27">
-        <v>1.000434859248155</v>
+        <v>0.9854923276099629</v>
       </c>
       <c r="H27">
-        <v>0.9994603193539439</v>
+        <v>1.017307541049978</v>
       </c>
       <c r="I27">
-        <v>0.9998132689762687</v>
+        <v>1.006835130916654</v>
       </c>
       <c r="J27">
-        <v>0.9998029232958744</v>
+        <v>1.00660713651172</v>
       </c>
       <c r="K27">
-        <v>0.9998132689762687</v>
+        <v>1.006835130916654</v>
       </c>
       <c r="L27">
-        <v>0.999798652853525</v>
+        <v>1.006513316369435</v>
       </c>
       <c r="M27">
-        <v>1.000291571920075</v>
+        <v>0.9900001557842828</v>
       </c>
       <c r="N27">
-        <v>1.000291571920075</v>
+        <v>0.9900001557842828</v>
       </c>
       <c r="O27">
-        <v>1.000339334362768</v>
+        <v>0.9884975463928428</v>
       </c>
       <c r="P27">
-        <v>1.000132137605473</v>
+        <v>0.99561181416174</v>
       </c>
       <c r="Q27">
-        <v>1.000132137605473</v>
+        <v>0.9956118141617399</v>
       </c>
       <c r="R27">
-        <v>1.000052420448172</v>
+        <v>0.9984176433504686</v>
       </c>
       <c r="S27">
-        <v>1.000052420448172</v>
+        <v>0.9984176433504686</v>
       </c>
       <c r="T27">
-        <v>1.000015752452399</v>
+        <v>0.9993737412761466</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9948678650873</v>
+        <v>0.9930710339730652</v>
       </c>
       <c r="D28">
-        <v>1.001282788731551</v>
+        <v>1.001780073776057</v>
       </c>
       <c r="E28">
-        <v>0.9948678650873</v>
+        <v>0.9930710339730652</v>
       </c>
       <c r="F28">
-        <v>1.001283480608521</v>
+        <v>1.001646156547752</v>
       </c>
       <c r="G28">
-        <v>0.9971774876439777</v>
+        <v>0.9961580732180082</v>
       </c>
       <c r="H28">
-        <v>1.003420642048414</v>
+        <v>1.004772362914147</v>
       </c>
       <c r="I28">
-        <v>1.001283480608521</v>
+        <v>1.001646156547752</v>
       </c>
       <c r="J28">
-        <v>1.001282990604986</v>
+        <v>1.001741024883814</v>
       </c>
       <c r="K28">
-        <v>1.001283480608521</v>
+        <v>1.001646156547752</v>
       </c>
       <c r="L28">
-        <v>1.001282788731551</v>
+        <v>1.001780073776057</v>
       </c>
       <c r="M28">
-        <v>0.9980753269094252</v>
+        <v>0.9974255538745611</v>
       </c>
       <c r="N28">
-        <v>0.9980753269094252</v>
+        <v>0.9974255538745611</v>
       </c>
       <c r="O28">
-        <v>0.997776047154276</v>
+        <v>0.9970030603223767</v>
       </c>
       <c r="P28">
-        <v>0.9991447114757904</v>
+        <v>0.9988324214322916</v>
       </c>
       <c r="Q28">
-        <v>0.9991447114757904</v>
+        <v>0.9988324214322916</v>
       </c>
       <c r="R28">
-        <v>0.9996794037589729</v>
+        <v>0.9995358552111568</v>
       </c>
       <c r="S28">
-        <v>0.9996794037589729</v>
+        <v>0.9995358552111568</v>
       </c>
       <c r="T28">
-        <v>0.999885875787458</v>
+        <v>0.9998614542188072</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000784490986625</v>
+      </c>
+      <c r="D29">
+        <v>0.999798652853525</v>
+      </c>
+      <c r="E29">
+        <v>1.000784490986625</v>
+      </c>
+      <c r="F29">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="G29">
+        <v>1.000434859248155</v>
+      </c>
+      <c r="H29">
+        <v>0.9994603193539439</v>
+      </c>
+      <c r="I29">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="J29">
+        <v>0.9998029232958744</v>
+      </c>
+      <c r="K29">
+        <v>0.9998132689762687</v>
+      </c>
+      <c r="L29">
+        <v>0.999798652853525</v>
+      </c>
+      <c r="M29">
+        <v>1.000291571920075</v>
+      </c>
+      <c r="N29">
+        <v>1.000291571920075</v>
+      </c>
+      <c r="O29">
+        <v>1.000339334362768</v>
+      </c>
+      <c r="P29">
+        <v>1.000132137605473</v>
+      </c>
+      <c r="Q29">
+        <v>1.000132137605473</v>
+      </c>
+      <c r="R29">
+        <v>1.000052420448172</v>
+      </c>
+      <c r="S29">
+        <v>1.000052420448172</v>
+      </c>
+      <c r="T29">
+        <v>1.000015752452399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9948678650873</v>
+      </c>
+      <c r="D30">
+        <v>1.001282788731551</v>
+      </c>
+      <c r="E30">
+        <v>0.9948678650873</v>
+      </c>
+      <c r="F30">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="G30">
+        <v>0.9971774876439777</v>
+      </c>
+      <c r="H30">
+        <v>1.003420642048414</v>
+      </c>
+      <c r="I30">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="J30">
+        <v>1.001282990604986</v>
+      </c>
+      <c r="K30">
+        <v>1.001283480608521</v>
+      </c>
+      <c r="L30">
+        <v>1.001282788731551</v>
+      </c>
+      <c r="M30">
+        <v>0.9980753269094252</v>
+      </c>
+      <c r="N30">
+        <v>0.9980753269094252</v>
+      </c>
+      <c r="O30">
+        <v>0.997776047154276</v>
+      </c>
+      <c r="P30">
+        <v>0.9991447114757904</v>
+      </c>
+      <c r="Q30">
+        <v>0.9991447114757904</v>
+      </c>
+      <c r="R30">
+        <v>0.9996794037589729</v>
+      </c>
+      <c r="S30">
+        <v>0.9996794037589729</v>
+      </c>
+      <c r="T30">
+        <v>0.999885875787458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9926579259342938</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.001816281273734</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9926579259342938</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001870147845659</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9959743197811428</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.004833172164433</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.001870147845659</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.001831998163779</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.001870147845659</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.001816281273734</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.997237103604014</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.997237103604014</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9968161756630569</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9987814516845622</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9987814516845622</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9995536257248363</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9995536257248363</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9998306408605068</v>
       </c>
     </row>
